--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DiemDanh" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,8 +33,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -60,18 +62,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -342,15 +350,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -359,8 +367,11 @@
     <col width="14.09765625" customWidth="1" min="2" max="2"/>
     <col width="16.3984375" customWidth="1" min="3" max="3"/>
     <col width="8.59765625" customWidth="1" min="4" max="9"/>
-    <col width="31.69921875" customWidth="1" min="10" max="10"/>
-    <col width="8.59765625" customWidth="1" min="11" max="26"/>
+    <col width="20.8984375" customWidth="1" min="10" max="10"/>
+    <col width="8.59765625" customWidth="1" min="11" max="22"/>
+    <col width="3.59765625" customWidth="1" min="23" max="23"/>
+    <col width="12.3984375" customWidth="1" min="24" max="24"/>
+    <col width="8.59765625" customWidth="1" min="25" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -384,25 +395,30 @@
           <t>Tên</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Buoi diem danh thu1- 25-September-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Buoi diem danh thu2- 25-September-2023</t>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Attendance Session 1 - 27-September-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Buoi diem danh thu3- 25-September-2023</t>
+          <t>Attendance Session 2 - 27-September-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Sobuoivang</t>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Da gui Email</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Number of Absences</t>
         </is>
       </c>
     </row>
@@ -425,8 +441,10 @@
           <t>Anh</t>
         </is>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>thongisme0207@gmail.com</t>
+        </is>
       </c>
       <c r="F2" s="1" t="b">
         <v>0</v>
@@ -442,13 +460,11 @@
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="n"/>
-      <c r="Q2">
-        <f>COUNTIF(E2:O2, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R2">
-        <f>COUNTIF(E2:O2, "FALSE")</f>
-        <v/>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -470,9 +486,7 @@
           <t>Bảo</t>
         </is>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5" t="n"/>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
@@ -487,13 +501,8 @@
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n"/>
-      <c r="Q3">
-        <f>COUNTIF(E3:O3, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R3">
-        <f>COUNTIF(E3:O3, "FALSE")</f>
-        <v/>
+      <c r="Y3" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -515,9 +524,7 @@
           <t>Bình</t>
         </is>
       </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E4" s="5" t="n"/>
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
@@ -532,13 +539,8 @@
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n"/>
-      <c r="Q4">
-        <f>COUNTIF(E4:O4, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R4">
-        <f>COUNTIF(E4:O4, "FALSE")</f>
-        <v/>
+      <c r="Y4" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -560,9 +562,7 @@
           <t>Chi</t>
         </is>
       </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E5" s="5" t="n"/>
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
@@ -577,13 +577,8 @@
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
-      <c r="Q5">
-        <f>COUNTIF(E5:O5, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R5">
-        <f>COUNTIF(E5:O5, "FALSE")</f>
-        <v/>
+      <c r="Y5" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -605,9 +600,7 @@
           <t>Chính</t>
         </is>
       </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="5" t="n"/>
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
@@ -622,13 +615,8 @@
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
-      <c r="Q6">
-        <f>COUNTIF(E6:O6, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R6">
-        <f>COUNTIF(E6:O6, "FALSE")</f>
-        <v/>
+      <c r="Y6" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -650,9 +638,7 @@
           <t>Công</t>
         </is>
       </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="5" t="n"/>
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
@@ -667,13 +653,8 @@
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
-      <c r="Q7">
-        <f>COUNTIF(E7:O7, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R7">
-        <f>COUNTIF(E7:O7, "FALSE")</f>
-        <v/>
+      <c r="Y7" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -695,9 +676,7 @@
           <t>Công</t>
         </is>
       </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E8" s="5" t="n"/>
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
@@ -712,13 +691,8 @@
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n"/>
-      <c r="Q8">
-        <f>COUNTIF(E8:O8, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R8">
-        <f>COUNTIF(E8:O8, "FALSE")</f>
-        <v/>
+      <c r="Y8" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -740,9 +714,7 @@
           <t>Cường</t>
         </is>
       </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E9" s="5" t="n"/>
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
@@ -757,13 +729,8 @@
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
-      <c r="Q9">
-        <f>COUNTIF(E9:O9, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R9">
-        <f>COUNTIF(E9:O9, "FALSE")</f>
-        <v/>
+      <c r="Y9" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -785,9 +752,7 @@
           <t>Cường</t>
         </is>
       </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="5" t="n"/>
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
@@ -802,13 +767,8 @@
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
-      <c r="Q10">
-        <f>COUNTIF(E10:O10, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R10">
-        <f>COUNTIF(E10:O10, "FALSE")</f>
-        <v/>
+      <c r="Y10" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -830,9 +790,7 @@
           <t>Dung</t>
         </is>
       </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="5" t="n"/>
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
@@ -847,13 +805,8 @@
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
-      <c r="Q11">
-        <f>COUNTIF(E11:O11, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R11">
-        <f>COUNTIF(E11:O11, "FALSE")</f>
-        <v/>
+      <c r="Y11" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -875,9 +828,7 @@
           <t>Dũng</t>
         </is>
       </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="5" t="n"/>
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
@@ -892,13 +843,8 @@
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
       <c r="O12" s="1" t="n"/>
-      <c r="Q12">
-        <f>COUNTIF(E12:O12, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R12">
-        <f>COUNTIF(E12:O12, "FALSE")</f>
-        <v/>
+      <c r="Y12" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -920,9 +866,7 @@
           <t>Dũng</t>
         </is>
       </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E13" s="5" t="n"/>
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
@@ -937,13 +881,8 @@
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
-      <c r="Q13">
-        <f>COUNTIF(E13:O13, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R13">
-        <f>COUNTIF(E13:O13, "FALSE")</f>
-        <v/>
+      <c r="Y13" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -965,9 +904,7 @@
           <t>Dũng</t>
         </is>
       </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E14" s="5" t="n"/>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
@@ -982,13 +919,8 @@
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
-      <c r="Q14">
-        <f>COUNTIF(E14:O14, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R14">
-        <f>COUNTIF(E14:O14, "FALSE")</f>
-        <v/>
+      <c r="Y14" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1010,9 +942,7 @@
           <t>Dũng</t>
         </is>
       </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E15" s="5" t="n"/>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
@@ -1027,13 +957,8 @@
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
-      <c r="Q15">
-        <f>COUNTIF(E15:O15, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R15">
-        <f>COUNTIF(E15:O15, "FALSE")</f>
-        <v/>
+      <c r="Y15" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1055,9 +980,7 @@
           <t>Duy</t>
         </is>
       </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E16" s="5" t="n"/>
       <c r="F16" s="1" t="b">
         <v>0</v>
       </c>
@@ -1072,13 +995,8 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
-      <c r="Q16">
-        <f>COUNTIF(E16:O16, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R16">
-        <f>COUNTIF(E16:O16, "FALSE")</f>
-        <v/>
+      <c r="Y16" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1100,9 +1018,7 @@
           <t>Dương</t>
         </is>
       </c>
-      <c r="E17" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E17" s="5" t="n"/>
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
@@ -1117,13 +1033,8 @@
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
-      <c r="Q17">
-        <f>COUNTIF(E17:O17, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R17">
-        <f>COUNTIF(E17:O17, "FALSE")</f>
-        <v/>
+      <c r="Y17" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1145,9 +1056,7 @@
           <t>Đạt</t>
         </is>
       </c>
-      <c r="E18" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E18" s="5" t="n"/>
       <c r="F18" s="1" t="b">
         <v>0</v>
       </c>
@@ -1162,13 +1071,8 @@
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
-      <c r="Q18">
-        <f>COUNTIF(E18:O18, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R18">
-        <f>COUNTIF(E18:O18, "FALSE")</f>
-        <v/>
+      <c r="Y18" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1190,9 +1094,7 @@
           <t>Đạt</t>
         </is>
       </c>
-      <c r="E19" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E19" s="5" t="n"/>
       <c r="F19" s="1" t="b">
         <v>0</v>
       </c>
@@ -1207,13 +1109,8 @@
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
-      <c r="Q19">
-        <f>COUNTIF(E19:O19, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R19">
-        <f>COUNTIF(E19:O19, "FALSE")</f>
-        <v/>
+      <c r="Y19" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1235,9 +1132,7 @@
           <t>Đạt</t>
         </is>
       </c>
-      <c r="E20" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E20" s="5" t="n"/>
       <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
@@ -1252,13 +1147,8 @@
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
-      <c r="Q20">
-        <f>COUNTIF(E20:O20, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R20">
-        <f>COUNTIF(E20:O20, "FALSE")</f>
-        <v/>
+      <c r="Y20" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1280,9 +1170,7 @@
           <t>Đăng</t>
         </is>
       </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E21" s="5" t="n"/>
       <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
@@ -1297,13 +1185,8 @@
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n"/>
-      <c r="Q21">
-        <f>COUNTIF(E21:O21, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R21">
-        <f>COUNTIF(E21:O21, "FALSE")</f>
-        <v/>
+      <c r="Y21" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1325,9 +1208,7 @@
           <t>Đăng</t>
         </is>
       </c>
-      <c r="E22" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E22" s="5" t="n"/>
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
@@ -1342,13 +1223,8 @@
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n"/>
-      <c r="Q22">
-        <f>COUNTIF(E22:O22, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R22">
-        <f>COUNTIF(E22:O22, "FALSE")</f>
-        <v/>
+      <c r="Y22" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1370,9 +1246,7 @@
           <t>Đăng</t>
         </is>
       </c>
-      <c r="E23" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E23" s="5" t="n"/>
       <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
@@ -1387,13 +1261,8 @@
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
-      <c r="Q23">
-        <f>COUNTIF(E23:O23, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R23">
-        <f>COUNTIF(E23:O23, "FALSE")</f>
-        <v/>
+      <c r="Y23" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1415,9 +1284,7 @@
           <t>Đăng</t>
         </is>
       </c>
-      <c r="E24" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E24" s="5" t="n"/>
       <c r="F24" s="1" t="b">
         <v>0</v>
       </c>
@@ -1432,13 +1299,8 @@
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n"/>
-      <c r="Q24">
-        <f>COUNTIF(E24:O24, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R24">
-        <f>COUNTIF(E24:O24, "FALSE")</f>
-        <v/>
+      <c r="Y24" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1460,9 +1322,7 @@
           <t>Đức</t>
         </is>
       </c>
-      <c r="E25" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E25" s="5" t="n"/>
       <c r="F25" s="1" t="b">
         <v>0</v>
       </c>
@@ -1477,13 +1337,8 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="Q25">
-        <f>COUNTIF(E25:O25, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R25">
-        <f>COUNTIF(E25:O25, "FALSE")</f>
-        <v/>
+      <c r="Y25" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1505,9 +1360,7 @@
           <t>Đức</t>
         </is>
       </c>
-      <c r="E26" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E26" s="5" t="n"/>
       <c r="F26" s="1" t="b">
         <v>0</v>
       </c>
@@ -1522,13 +1375,8 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
-      <c r="Q26">
-        <f>COUNTIF(E26:O26, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R26">
-        <f>COUNTIF(E26:O26, "FALSE")</f>
-        <v/>
+      <c r="Y26" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1550,9 +1398,7 @@
           <t>Hà</t>
         </is>
       </c>
-      <c r="E27" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E27" s="5" t="n"/>
       <c r="F27" s="1" t="b">
         <v>0</v>
       </c>
@@ -1567,13 +1413,8 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
-      <c r="Q27">
-        <f>COUNTIF(E27:O27, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R27">
-        <f>COUNTIF(E27:O27, "FALSE")</f>
-        <v/>
+      <c r="Y27" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1595,9 +1436,7 @@
           <t>Hải</t>
         </is>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E28" s="5" t="n"/>
       <c r="F28" s="1" t="b">
         <v>0</v>
       </c>
@@ -1612,13 +1451,8 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
-      <c r="Q28">
-        <f>COUNTIF(E28:O28, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R28">
-        <f>COUNTIF(E28:O28, "FALSE")</f>
-        <v/>
+      <c r="Y28" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1640,9 +1474,7 @@
           <t>Hiếu</t>
         </is>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E29" s="5" t="n"/>
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
@@ -1657,13 +1489,8 @@
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n"/>
-      <c r="Q29">
-        <f>COUNTIF(E29:O29, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R29">
-        <f>COUNTIF(E29:O29, "FALSE")</f>
-        <v/>
+      <c r="Y29" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1685,9 +1512,7 @@
           <t>Hòa</t>
         </is>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E30" s="5" t="n"/>
       <c r="F30" s="1" t="b">
         <v>0</v>
       </c>
@@ -1702,13 +1527,8 @@
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n"/>
-      <c r="Q30">
-        <f>COUNTIF(E30:O30, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R30">
-        <f>COUNTIF(E30:O30, "FALSE")</f>
-        <v/>
+      <c r="Y30" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1730,9 +1550,7 @@
           <t>Hoàng</t>
         </is>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E31" s="5" t="n"/>
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
@@ -1747,13 +1565,8 @@
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n"/>
-      <c r="Q31">
-        <f>COUNTIF(E31:O31, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R31">
-        <f>COUNTIF(E31:O31, "FALSE")</f>
-        <v/>
+      <c r="Y31" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1775,16 +1588,14 @@
           <t>Hoàng</t>
         </is>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E32" s="5" t="n"/>
       <c r="F32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="4" t="n"/>
+      <c r="H32" s="3" t="n"/>
       <c r="I32" s="1" t="n"/>
       <c r="J32" s="1" t="n"/>
       <c r="K32" s="1" t="n"/>
@@ -1792,13 +1603,8 @@
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
       <c r="O32" s="1" t="n"/>
-      <c r="Q32">
-        <f>COUNTIF(E32:O32, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R32">
-        <f>COUNTIF(E32:O32, "FALSE")</f>
-        <v/>
+      <c r="Y32" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1820,16 +1626,14 @@
           <t>Hoàng</t>
         </is>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E33" s="5" t="n"/>
       <c r="F33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="4" t="n"/>
+      <c r="H33" s="3" t="n"/>
       <c r="I33" s="1" t="n"/>
       <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="n"/>
@@ -1837,13 +1641,8 @@
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
       <c r="O33" s="1" t="n"/>
-      <c r="Q33">
-        <f>COUNTIF(E33:O33, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R33">
-        <f>COUNTIF(E33:O33, "FALSE")</f>
-        <v/>
+      <c r="Y33" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1865,9 +1664,7 @@
           <t>Hùng</t>
         </is>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E34" s="5" t="n"/>
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
@@ -1882,13 +1679,8 @@
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
       <c r="O34" s="1" t="n"/>
-      <c r="Q34">
-        <f>COUNTIF(E34:O34, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R34">
-        <f>COUNTIF(E34:O34, "FALSE")</f>
-        <v/>
+      <c r="Y34" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1910,9 +1702,7 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E35" s="5" t="n"/>
       <c r="F35" s="1" t="b">
         <v>0</v>
       </c>
@@ -1927,13 +1717,8 @@
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
       <c r="O35" s="1" t="n"/>
-      <c r="Q35">
-        <f>COUNTIF(E35:O35, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R35">
-        <f>COUNTIF(E35:O35, "FALSE")</f>
-        <v/>
+      <c r="Y35" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1955,9 +1740,7 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E36" s="5" t="n"/>
       <c r="F36" s="1" t="b">
         <v>0</v>
       </c>
@@ -1972,13 +1755,8 @@
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
       <c r="O36" s="1" t="n"/>
-      <c r="Q36">
-        <f>COUNTIF(E36:O36, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R36">
-        <f>COUNTIF(E36:O36, "FALSE")</f>
-        <v/>
+      <c r="Y36" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2000,9 +1778,7 @@
           <t>Huy</t>
         </is>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E37" s="5" t="n"/>
       <c r="F37" s="1" t="b">
         <v>0</v>
       </c>
@@ -2017,13 +1793,8 @@
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
       <c r="O37" s="1" t="n"/>
-      <c r="Q37">
-        <f>COUNTIF(E37:O37, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R37">
-        <f>COUNTIF(E37:O37, "FALSE")</f>
-        <v/>
+      <c r="Y37" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2045,9 +1816,7 @@
           <t>Huyên</t>
         </is>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E38" s="5" t="n"/>
       <c r="F38" s="1" t="b">
         <v>0</v>
       </c>
@@ -2062,13 +1831,8 @@
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
       <c r="O38" s="1" t="n"/>
-      <c r="Q38">
-        <f>COUNTIF(E38:O38, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R38">
-        <f>COUNTIF(E38:O38, "FALSE")</f>
-        <v/>
+      <c r="Y38" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2090,9 +1854,7 @@
           <t>Hưng</t>
         </is>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E39" s="5" t="n"/>
       <c r="F39" s="1" t="b">
         <v>0</v>
       </c>
@@ -2107,13 +1869,8 @@
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n"/>
-      <c r="Q39">
-        <f>COUNTIF(E39:O39, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R39">
-        <f>COUNTIF(E39:O39, "FALSE")</f>
-        <v/>
+      <c r="Y39" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2135,9 +1892,7 @@
           <t>Khanh</t>
         </is>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E40" s="5" t="n"/>
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
@@ -2152,13 +1907,8 @@
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n"/>
-      <c r="Q40">
-        <f>COUNTIF(E40:O40, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R40">
-        <f>COUNTIF(E40:O40, "FALSE")</f>
-        <v/>
+      <c r="Y40" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2180,9 +1930,7 @@
           <t>Khánh</t>
         </is>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E41" s="5" t="n"/>
       <c r="F41" s="1" t="b">
         <v>0</v>
       </c>
@@ -2197,13 +1945,8 @@
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
       <c r="O41" s="1" t="n"/>
-      <c r="Q41">
-        <f>COUNTIF(E41:O41, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R41">
-        <f>COUNTIF(E41:O41, "FALSE")</f>
-        <v/>
+      <c r="Y41" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2225,9 +1968,7 @@
           <t>Khôi</t>
         </is>
       </c>
-      <c r="E42" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E42" s="5" t="n"/>
       <c r="F42" s="1" t="b">
         <v>0</v>
       </c>
@@ -2242,13 +1983,8 @@
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
       <c r="O42" s="1" t="n"/>
-      <c r="Q42">
-        <f>COUNTIF(E42:O42, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R42">
-        <f>COUNTIF(E42:O42, "FALSE")</f>
-        <v/>
+      <c r="Y42" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2270,9 +2006,7 @@
           <t>Kiên</t>
         </is>
       </c>
-      <c r="E43" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E43" s="5" t="n"/>
       <c r="F43" s="1" t="b">
         <v>0</v>
       </c>
@@ -2287,13 +2021,8 @@
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
       <c r="O43" s="1" t="n"/>
-      <c r="Q43">
-        <f>COUNTIF(E43:O43, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R43">
-        <f>COUNTIF(E43:O43, "FALSE")</f>
-        <v/>
+      <c r="Y43" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2315,9 +2044,7 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E44" s="5" t="n"/>
       <c r="F44" s="1" t="b">
         <v>0</v>
       </c>
@@ -2332,13 +2059,8 @@
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
       <c r="O44" s="1" t="n"/>
-      <c r="Q44">
-        <f>COUNTIF(E44:O44, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R44">
-        <f>COUNTIF(E44:O44, "FALSE")</f>
-        <v/>
+      <c r="Y44" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2360,9 +2082,7 @@
           <t>Luyện</t>
         </is>
       </c>
-      <c r="E45" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E45" s="5" t="n"/>
       <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
@@ -2377,13 +2097,8 @@
       <c r="M45" s="1" t="n"/>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n"/>
-      <c r="Q45">
-        <f>COUNTIF(E45:O45, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R45">
-        <f>COUNTIF(E45:O45, "FALSE")</f>
-        <v/>
+      <c r="Y45" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2405,9 +2120,7 @@
           <t>Ly</t>
         </is>
       </c>
-      <c r="E46" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E46" s="5" t="n"/>
       <c r="F46" s="1" t="b">
         <v>0</v>
       </c>
@@ -2422,13 +2135,8 @@
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n"/>
-      <c r="Q46">
-        <f>COUNTIF(E46:O46, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R46">
-        <f>COUNTIF(E46:O46, "FALSE")</f>
-        <v/>
+      <c r="Y46" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2450,9 +2158,7 @@
           <t>Minh</t>
         </is>
       </c>
-      <c r="E47" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E47" s="5" t="n"/>
       <c r="F47" s="1" t="b">
         <v>0</v>
       </c>
@@ -2467,13 +2173,8 @@
       <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n"/>
-      <c r="Q47">
-        <f>COUNTIF(E47:O47, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R47">
-        <f>COUNTIF(E47:O47, "FALSE")</f>
-        <v/>
+      <c r="Y47" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2495,9 +2196,7 @@
           <t>Nam</t>
         </is>
       </c>
-      <c r="E48" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E48" s="5" t="n"/>
       <c r="F48" s="1" t="b">
         <v>0</v>
       </c>
@@ -2512,13 +2211,8 @@
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n"/>
-      <c r="Q48">
-        <f>COUNTIF(E48:O48, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R48">
-        <f>COUNTIF(E48:O48, "FALSE")</f>
-        <v/>
+      <c r="Y48" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2540,9 +2234,7 @@
           <t>Ngọc</t>
         </is>
       </c>
-      <c r="E49" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E49" s="5" t="n"/>
       <c r="F49" s="1" t="b">
         <v>0</v>
       </c>
@@ -2557,13 +2249,8 @@
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n"/>
-      <c r="Q49">
-        <f>COUNTIF(E49:O49, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R49">
-        <f>COUNTIF(E49:O49, "FALSE")</f>
-        <v/>
+      <c r="Y49" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2585,9 +2272,7 @@
           <t>Nguyệt</t>
         </is>
       </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E50" s="5" t="n"/>
       <c r="F50" s="1" t="b">
         <v>0</v>
       </c>
@@ -2602,13 +2287,8 @@
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n"/>
-      <c r="Q50">
-        <f>COUNTIF(E50:O50, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R50">
-        <f>COUNTIF(E50:O50, "FALSE")</f>
-        <v/>
+      <c r="Y50" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2630,9 +2310,7 @@
           <t>Oanh</t>
         </is>
       </c>
-      <c r="E51" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E51" s="5" t="n"/>
       <c r="F51" s="1" t="b">
         <v>0</v>
       </c>
@@ -2647,13 +2325,8 @@
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n"/>
-      <c r="Q51">
-        <f>COUNTIF(E51:O51, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R51">
-        <f>COUNTIF(E51:O51, "FALSE")</f>
-        <v/>
+      <c r="Y51" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2675,10 +2348,8 @@
           <t>Phong</t>
         </is>
       </c>
-      <c r="E52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="b">
+      <c r="E52" s="5" t="n"/>
+      <c r="F52" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G52" s="1" t="b">
@@ -2692,13 +2363,8 @@
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n"/>
-      <c r="Q52">
-        <f>COUNTIF(E52:O52, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R52">
-        <f>COUNTIF(E52:O52, "FALSE")</f>
-        <v/>
+      <c r="Y52" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2720,9 +2386,7 @@
           <t>Phong</t>
         </is>
       </c>
-      <c r="E53" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E53" s="5" t="n"/>
       <c r="F53" s="1" t="b">
         <v>0</v>
       </c>
@@ -2737,13 +2401,8 @@
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
       <c r="O53" s="1" t="n"/>
-      <c r="Q53">
-        <f>COUNTIF(E53:O53, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R53">
-        <f>COUNTIF(E53:O53, "FALSE")</f>
-        <v/>
+      <c r="Y53" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2765,9 +2424,7 @@
           <t>Phong</t>
         </is>
       </c>
-      <c r="E54" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E54" s="5" t="n"/>
       <c r="F54" s="1" t="b">
         <v>0</v>
       </c>
@@ -2782,13 +2439,8 @@
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
       <c r="O54" s="1" t="n"/>
-      <c r="Q54">
-        <f>COUNTIF(E54:O54, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R54">
-        <f>COUNTIF(E54:O54, "FALSE")</f>
-        <v/>
+      <c r="Y54" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2810,9 +2462,7 @@
           <t>Phúc</t>
         </is>
       </c>
-      <c r="E55" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E55" s="5" t="n"/>
       <c r="F55" s="1" t="b">
         <v>0</v>
       </c>
@@ -2827,13 +2477,8 @@
       <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
       <c r="O55" s="1" t="n"/>
-      <c r="Q55">
-        <f>COUNTIF(E55:O55, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R55">
-        <f>COUNTIF(E55:O55, "FALSE")</f>
-        <v/>
+      <c r="Y55" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2855,9 +2500,7 @@
           <t>Phương</t>
         </is>
       </c>
-      <c r="E56" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E56" s="5" t="n"/>
       <c r="F56" s="1" t="b">
         <v>0</v>
       </c>
@@ -2872,13 +2515,8 @@
       <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
       <c r="O56" s="1" t="n"/>
-      <c r="Q56">
-        <f>COUNTIF(E56:O56, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R56">
-        <f>COUNTIF(E56:O56, "FALSE")</f>
-        <v/>
+      <c r="Y56" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2900,9 +2538,7 @@
           <t>Quang</t>
         </is>
       </c>
-      <c r="E57" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E57" s="5" t="n"/>
       <c r="F57" s="1" t="b">
         <v>0</v>
       </c>
@@ -2917,13 +2553,8 @@
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n"/>
-      <c r="Q57">
-        <f>COUNTIF(E57:O57, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R57">
-        <f>COUNTIF(E57:O57, "FALSE")</f>
-        <v/>
+      <c r="Y57" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2945,9 +2576,7 @@
           <t>Quang</t>
         </is>
       </c>
-      <c r="E58" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E58" s="5" t="n"/>
       <c r="F58" s="1" t="b">
         <v>0</v>
       </c>
@@ -2962,13 +2591,8 @@
       <c r="M58" s="1" t="n"/>
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n"/>
-      <c r="Q58">
-        <f>COUNTIF(E58:O58, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R58">
-        <f>COUNTIF(E58:O58, "FALSE")</f>
-        <v/>
+      <c r="Y58" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2990,9 +2614,7 @@
           <t>Quân</t>
         </is>
       </c>
-      <c r="E59" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E59" s="5" t="n"/>
       <c r="F59" s="1" t="b">
         <v>0</v>
       </c>
@@ -3007,13 +2629,8 @@
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n"/>
-      <c r="Q59">
-        <f>COUNTIF(E59:O59, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R59">
-        <f>COUNTIF(E59:O59, "FALSE")</f>
-        <v/>
+      <c r="Y59" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3035,9 +2652,7 @@
           <t>Quân</t>
         </is>
       </c>
-      <c r="E60" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E60" s="5" t="n"/>
       <c r="F60" s="1" t="b">
         <v>0</v>
       </c>
@@ -3052,13 +2667,8 @@
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n"/>
-      <c r="Q60">
-        <f>COUNTIF(E60:O60, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R60">
-        <f>COUNTIF(E60:O60, "FALSE")</f>
-        <v/>
+      <c r="Y60" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3080,9 +2690,7 @@
           <t>Quỳnh</t>
         </is>
       </c>
-      <c r="E61" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E61" s="5" t="n"/>
       <c r="F61" s="1" t="b">
         <v>0</v>
       </c>
@@ -3097,13 +2705,8 @@
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n"/>
-      <c r="Q61">
-        <f>COUNTIF(E61:O61, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R61">
-        <f>COUNTIF(E61:O61, "FALSE")</f>
-        <v/>
+      <c r="Y61" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3125,9 +2728,7 @@
           <t>Sáng</t>
         </is>
       </c>
-      <c r="E62" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E62" s="5" t="n"/>
       <c r="F62" s="1" t="b">
         <v>0</v>
       </c>
@@ -3142,13 +2743,8 @@
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n"/>
-      <c r="Q62">
-        <f>COUNTIF(E62:O62, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R62">
-        <f>COUNTIF(E62:O62, "FALSE")</f>
-        <v/>
+      <c r="Y62" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3170,9 +2766,7 @@
           <t>Sihalath</t>
         </is>
       </c>
-      <c r="E63" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E63" s="5" t="n"/>
       <c r="F63" s="1" t="b">
         <v>0</v>
       </c>
@@ -3187,13 +2781,8 @@
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n"/>
-      <c r="Q63">
-        <f>COUNTIF(E63:O63, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R63">
-        <f>COUNTIF(E63:O63, "FALSE")</f>
-        <v/>
+      <c r="Y63" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3215,9 +2804,7 @@
           <t>Thái</t>
         </is>
       </c>
-      <c r="E64" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E64" s="5" t="n"/>
       <c r="F64" s="1" t="b">
         <v>0</v>
       </c>
@@ -3232,13 +2819,8 @@
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n"/>
-      <c r="Q64">
-        <f>COUNTIF(E64:O64, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R64">
-        <f>COUNTIF(E64:O64, "FALSE")</f>
-        <v/>
+      <c r="Y64" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3260,9 +2842,7 @@
           <t>Thành</t>
         </is>
       </c>
-      <c r="E65" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E65" s="5" t="n"/>
       <c r="F65" s="1" t="b">
         <v>0</v>
       </c>
@@ -3277,13 +2857,8 @@
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n"/>
-      <c r="Q65">
-        <f>COUNTIF(E65:O65, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R65">
-        <f>COUNTIF(E65:O65, "FALSE")</f>
-        <v/>
+      <c r="Y65" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3305,9 +2880,7 @@
           <t>Thành</t>
         </is>
       </c>
-      <c r="E66" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E66" s="5" t="n"/>
       <c r="F66" s="1" t="b">
         <v>0</v>
       </c>
@@ -3322,13 +2895,8 @@
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n"/>
-      <c r="Q66">
-        <f>COUNTIF(E66:O66, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R66">
-        <f>COUNTIF(E66:O66, "FALSE")</f>
-        <v/>
+      <c r="Y66" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3350,9 +2918,7 @@
           <t>Thắng</t>
         </is>
       </c>
-      <c r="E67" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E67" s="5" t="n"/>
       <c r="F67" s="1" t="b">
         <v>0</v>
       </c>
@@ -3367,13 +2933,8 @@
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
       <c r="O67" s="1" t="n"/>
-      <c r="Q67">
-        <f>COUNTIF(E67:O67, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R67">
-        <f>COUNTIF(E67:O67, "FALSE")</f>
-        <v/>
+      <c r="Y67" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3395,9 +2956,7 @@
           <t>Thông</t>
         </is>
       </c>
-      <c r="E68" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E68" s="5" t="n"/>
       <c r="F68" s="1" t="b">
         <v>1</v>
       </c>
@@ -3412,13 +2971,8 @@
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
       <c r="O68" s="1" t="n"/>
-      <c r="Q68">
-        <f>COUNTIF(E68:O68, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R68">
-        <f>COUNTIF(E68:O68, "FALSE")</f>
-        <v/>
+      <c r="Y68" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3440,9 +2994,7 @@
           <t>Toàn</t>
         </is>
       </c>
-      <c r="E69" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E69" s="5" t="n"/>
       <c r="F69" s="1" t="b">
         <v>0</v>
       </c>
@@ -3457,13 +3009,8 @@
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
       <c r="O69" s="1" t="n"/>
-      <c r="Q69">
-        <f>COUNTIF(E69:O69, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R69">
-        <f>COUNTIF(E69:O69, "FALSE")</f>
-        <v/>
+      <c r="Y69" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3485,9 +3032,7 @@
           <t>Tú</t>
         </is>
       </c>
-      <c r="E70" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E70" s="5" t="n"/>
       <c r="F70" s="1" t="b">
         <v>0</v>
       </c>
@@ -3502,13 +3047,8 @@
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
       <c r="O70" s="1" t="n"/>
-      <c r="Q70">
-        <f>COUNTIF(E70:O70, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R70">
-        <f>COUNTIF(E70:O70, "FALSE")</f>
-        <v/>
+      <c r="Y70" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3530,10 +3070,8 @@
           <t>Tuấn</t>
         </is>
       </c>
-      <c r="E71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4" t="b">
+      <c r="E71" s="5" t="n"/>
+      <c r="F71" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G71" s="1" t="b">
@@ -3547,13 +3085,8 @@
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n"/>
-      <c r="Q71">
-        <f>COUNTIF(E71:O71, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R71">
-        <f>COUNTIF(E71:O71, "FALSE")</f>
-        <v/>
+      <c r="Y71" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3575,9 +3108,7 @@
           <t>Tuấn</t>
         </is>
       </c>
-      <c r="E72" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E72" s="5" t="n"/>
       <c r="F72" s="1" t="b">
         <v>0</v>
       </c>
@@ -3592,13 +3123,8 @@
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n"/>
-      <c r="Q72">
-        <f>COUNTIF(E72:O72, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R72">
-        <f>COUNTIF(E72:O72, "FALSE")</f>
-        <v/>
+      <c r="Y72" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3620,9 +3146,7 @@
           <t>Tuấn</t>
         </is>
       </c>
-      <c r="E73" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E73" s="5" t="n"/>
       <c r="F73" s="1" t="b">
         <v>0</v>
       </c>
@@ -3637,13 +3161,8 @@
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n"/>
-      <c r="Q73">
-        <f>COUNTIF(E73:O73, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R73">
-        <f>COUNTIF(E73:O73, "FALSE")</f>
-        <v/>
+      <c r="Y73" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3665,9 +3184,7 @@
           <t>Vũ</t>
         </is>
       </c>
-      <c r="E74" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="E74" s="5" t="n"/>
       <c r="F74" s="1" t="b">
         <v>0</v>
       </c>
@@ -3682,111 +3199,65 @@
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n"/>
-      <c r="Q74">
-        <f>COUNTIF(E74:O74, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R74">
-        <f>COUNTIF(E74:O74, "FALSE")</f>
-        <v/>
+      <c r="Y74" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="b">
-        <v>0</v>
-      </c>
+      <c r="E75" s="5" t="n"/>
       <c r="F75" t="b">
         <v>0</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="Q75">
-        <f>COUNTIF(E75:O75, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R75">
-        <f>COUNTIF(E75:O75, "FALSE")</f>
-        <v/>
+      <c r="Y75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="b">
-        <v>0</v>
-      </c>
+      <c r="E76" s="5" t="n"/>
       <c r="F76" t="b">
         <v>0</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="Q76">
-        <f>COUNTIF(E76:O76, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R76">
-        <f>COUNTIF(E76:O76, "FALSE")</f>
-        <v/>
+      <c r="Y76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="b">
-        <v>0</v>
-      </c>
+      <c r="E77" s="5" t="n"/>
       <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="Q77">
-        <f>COUNTIF(E77:O77, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R77">
-        <f>COUNTIF(E77:O77, "FALSE")</f>
-        <v/>
+      <c r="Y77" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="b">
-        <v>0</v>
-      </c>
+      <c r="E78" s="5" t="n"/>
       <c r="F78" t="b">
         <v>0</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="Q78">
-        <f>COUNTIF(E78:O78, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R78">
-        <f>COUNTIF(E78:O78, "FALSE")</f>
-        <v/>
+      <c r="Y78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="b">
-        <v>0</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <f>COUNTIF(E79:O79, "FALSE")</f>
-        <v/>
-      </c>
-      <c r="R79">
-        <f>COUNTIF(E79:O79, "FALSE")</f>
-        <v/>
-      </c>
+      <c r="E79" s="5" t="n"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -410,7 +410,16 @@
           <t>Attendance Session 2 - 27-September-2023</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Attendance Session 3 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Attendance Session 4 - 28-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -452,8 +461,12 @@
       <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
@@ -493,8 +506,12 @@
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
@@ -502,7 +519,7 @@
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n"/>
       <c r="Y3" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -531,8 +548,12 @@
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
@@ -540,7 +561,7 @@
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n"/>
       <c r="Y4" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -569,8 +590,12 @@
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
       <c r="L5" s="1" t="n"/>
@@ -578,7 +603,7 @@
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
       <c r="Y5" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -607,8 +632,12 @@
       <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
@@ -616,7 +645,7 @@
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="Y6" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -645,8 +674,12 @@
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -654,7 +687,7 @@
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="Y7" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -683,8 +716,12 @@
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -692,7 +729,7 @@
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="Y8" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -721,8 +758,12 @@
       <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
@@ -730,7 +771,7 @@
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
       <c r="Y9" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -759,8 +800,12 @@
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -768,7 +813,7 @@
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
       <c r="Y10" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -797,8 +842,12 @@
       <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -806,7 +855,7 @@
       <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
       <c r="Y11" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -835,8 +884,12 @@
       <c r="G12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -844,7 +897,7 @@
       <c r="N12" s="1" t="n"/>
       <c r="O12" s="1" t="n"/>
       <c r="Y12" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -873,8 +926,12 @@
       <c r="G13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
@@ -882,7 +939,7 @@
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="Y13" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -911,8 +968,12 @@
       <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
@@ -920,7 +981,7 @@
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="Y14" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -949,8 +1010,12 @@
       <c r="G15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
@@ -958,7 +1023,7 @@
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="Y15" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -987,8 +1052,12 @@
       <c r="G16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
@@ -996,7 +1065,7 @@
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="Y16" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1094,12 @@
       <c r="G17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
@@ -1034,7 +1107,7 @@
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="Y17" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1063,8 +1136,12 @@
       <c r="G18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
@@ -1072,7 +1149,7 @@
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="Y18" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1101,8 +1178,12 @@
       <c r="G19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
+      <c r="H19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
@@ -1110,7 +1191,7 @@
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
       <c r="Y19" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1139,8 +1220,12 @@
       <c r="G20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
+      <c r="H20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J20" s="1" t="n"/>
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
@@ -1148,7 +1233,7 @@
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
       <c r="Y20" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1177,8 +1262,12 @@
       <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
+      <c r="H21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
       <c r="L21" s="1" t="n"/>
@@ -1186,7 +1275,7 @@
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n"/>
       <c r="Y21" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1215,8 +1304,12 @@
       <c r="G22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
+      <c r="H22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J22" s="1" t="n"/>
       <c r="K22" s="1" t="n"/>
       <c r="L22" s="1" t="n"/>
@@ -1224,7 +1317,7 @@
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n"/>
       <c r="Y22" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1253,8 +1346,12 @@
       <c r="G23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
+      <c r="H23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
       <c r="L23" s="1" t="n"/>
@@ -1262,7 +1359,7 @@
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
       <c r="Y23" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1291,8 +1388,12 @@
       <c r="G24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
+      <c r="H24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J24" s="1" t="n"/>
       <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
@@ -1300,7 +1401,7 @@
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n"/>
       <c r="Y24" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1329,8 +1430,12 @@
       <c r="G25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
+      <c r="H25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
@@ -1338,7 +1443,7 @@
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
       <c r="Y25" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1367,8 +1472,12 @@
       <c r="G26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
+      <c r="H26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="n"/>
       <c r="L26" s="1" t="n"/>
@@ -1376,7 +1485,7 @@
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
       <c r="Y26" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1405,8 +1514,12 @@
       <c r="G27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
+      <c r="H27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J27" s="1" t="n"/>
       <c r="K27" s="1" t="n"/>
       <c r="L27" s="1" t="n"/>
@@ -1414,7 +1527,7 @@
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
       <c r="Y27" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1443,8 +1556,12 @@
       <c r="G28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
+      <c r="H28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J28" s="1" t="n"/>
       <c r="K28" s="1" t="n"/>
       <c r="L28" s="1" t="n"/>
@@ -1452,7 +1569,7 @@
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
       <c r="Y28" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1481,8 +1598,12 @@
       <c r="G29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
+      <c r="H29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J29" s="1" t="n"/>
       <c r="K29" s="1" t="n"/>
       <c r="L29" s="1" t="n"/>
@@ -1490,7 +1611,7 @@
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n"/>
       <c r="Y29" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1519,8 +1640,12 @@
       <c r="G30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
+      <c r="H30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
       <c r="L30" s="1" t="n"/>
@@ -1528,7 +1653,7 @@
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n"/>
       <c r="Y30" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1557,8 +1682,12 @@
       <c r="G31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
+      <c r="H31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
@@ -1566,7 +1695,7 @@
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n"/>
       <c r="Y31" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1595,8 +1724,12 @@
       <c r="G32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="n"/>
-      <c r="I32" s="1" t="n"/>
+      <c r="H32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J32" s="1" t="n"/>
       <c r="K32" s="1" t="n"/>
       <c r="L32" s="1" t="n"/>
@@ -1604,7 +1737,7 @@
       <c r="N32" s="1" t="n"/>
       <c r="O32" s="1" t="n"/>
       <c r="Y32" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1633,8 +1766,12 @@
       <c r="G33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="n"/>
-      <c r="I33" s="1" t="n"/>
+      <c r="H33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="n"/>
       <c r="L33" s="1" t="n"/>
@@ -1642,7 +1779,7 @@
       <c r="N33" s="1" t="n"/>
       <c r="O33" s="1" t="n"/>
       <c r="Y33" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1671,8 +1808,12 @@
       <c r="G34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
+      <c r="H34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J34" s="1" t="n"/>
       <c r="K34" s="1" t="n"/>
       <c r="L34" s="1" t="n"/>
@@ -1680,7 +1821,7 @@
       <c r="N34" s="1" t="n"/>
       <c r="O34" s="1" t="n"/>
       <c r="Y34" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1709,8 +1850,12 @@
       <c r="G35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="1" t="n"/>
-      <c r="I35" s="1" t="n"/>
+      <c r="H35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J35" s="1" t="n"/>
       <c r="K35" s="1" t="n"/>
       <c r="L35" s="1" t="n"/>
@@ -1718,7 +1863,7 @@
       <c r="N35" s="1" t="n"/>
       <c r="O35" s="1" t="n"/>
       <c r="Y35" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1747,8 +1892,12 @@
       <c r="G36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="n"/>
-      <c r="I36" s="1" t="n"/>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J36" s="1" t="n"/>
       <c r="K36" s="1" t="n"/>
       <c r="L36" s="1" t="n"/>
@@ -1756,7 +1905,7 @@
       <c r="N36" s="1" t="n"/>
       <c r="O36" s="1" t="n"/>
       <c r="Y36" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1785,8 +1934,12 @@
       <c r="G37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="1" t="n"/>
-      <c r="I37" s="1" t="n"/>
+      <c r="H37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J37" s="1" t="n"/>
       <c r="K37" s="1" t="n"/>
       <c r="L37" s="1" t="n"/>
@@ -1794,7 +1947,7 @@
       <c r="N37" s="1" t="n"/>
       <c r="O37" s="1" t="n"/>
       <c r="Y37" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1823,8 +1976,12 @@
       <c r="G38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J38" s="1" t="n"/>
       <c r="K38" s="1" t="n"/>
       <c r="L38" s="1" t="n"/>
@@ -1832,7 +1989,7 @@
       <c r="N38" s="1" t="n"/>
       <c r="O38" s="1" t="n"/>
       <c r="Y38" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1861,8 +2018,12 @@
       <c r="G39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
+      <c r="H39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
       <c r="L39" s="1" t="n"/>
@@ -1870,7 +2031,7 @@
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n"/>
       <c r="Y39" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1899,8 +2060,12 @@
       <c r="G40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
       <c r="L40" s="1" t="n"/>
@@ -1908,7 +2073,7 @@
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n"/>
       <c r="Y40" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1937,8 +2102,12 @@
       <c r="G41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
+      <c r="H41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J41" s="1" t="n"/>
       <c r="K41" s="1" t="n"/>
       <c r="L41" s="1" t="n"/>
@@ -1946,7 +2115,7 @@
       <c r="N41" s="1" t="n"/>
       <c r="O41" s="1" t="n"/>
       <c r="Y41" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1975,8 +2144,12 @@
       <c r="G42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
+      <c r="H42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J42" s="1" t="n"/>
       <c r="K42" s="1" t="n"/>
       <c r="L42" s="1" t="n"/>
@@ -1984,7 +2157,7 @@
       <c r="N42" s="1" t="n"/>
       <c r="O42" s="1" t="n"/>
       <c r="Y42" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2013,8 +2186,12 @@
       <c r="G43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
+      <c r="H43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J43" s="1" t="n"/>
       <c r="K43" s="1" t="n"/>
       <c r="L43" s="1" t="n"/>
@@ -2022,7 +2199,7 @@
       <c r="N43" s="1" t="n"/>
       <c r="O43" s="1" t="n"/>
       <c r="Y43" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2051,8 +2228,12 @@
       <c r="G44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
+      <c r="H44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J44" s="1" t="n"/>
       <c r="K44" s="1" t="n"/>
       <c r="L44" s="1" t="n"/>
@@ -2060,7 +2241,7 @@
       <c r="N44" s="1" t="n"/>
       <c r="O44" s="1" t="n"/>
       <c r="Y44" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2089,8 +2270,12 @@
       <c r="G45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="n"/>
-      <c r="I45" s="1" t="n"/>
+      <c r="H45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J45" s="1" t="n"/>
       <c r="K45" s="1" t="n"/>
       <c r="L45" s="1" t="n"/>
@@ -2098,7 +2283,7 @@
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n"/>
       <c r="Y45" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2127,8 +2312,12 @@
       <c r="G46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="1" t="n"/>
-      <c r="I46" s="1" t="n"/>
+      <c r="H46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J46" s="1" t="n"/>
       <c r="K46" s="1" t="n"/>
       <c r="L46" s="1" t="n"/>
@@ -2136,7 +2325,7 @@
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n"/>
       <c r="Y46" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2165,8 +2354,12 @@
       <c r="G47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="1" t="n"/>
-      <c r="I47" s="1" t="n"/>
+      <c r="H47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J47" s="1" t="n"/>
       <c r="K47" s="1" t="n"/>
       <c r="L47" s="1" t="n"/>
@@ -2174,7 +2367,7 @@
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n"/>
       <c r="Y47" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2203,8 +2396,12 @@
       <c r="G48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="1" t="n"/>
-      <c r="I48" s="1" t="n"/>
+      <c r="H48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J48" s="1" t="n"/>
       <c r="K48" s="1" t="n"/>
       <c r="L48" s="1" t="n"/>
@@ -2212,7 +2409,7 @@
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n"/>
       <c r="Y48" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2241,8 +2438,12 @@
       <c r="G49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="1" t="n"/>
-      <c r="I49" s="1" t="n"/>
+      <c r="H49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J49" s="1" t="n"/>
       <c r="K49" s="1" t="n"/>
       <c r="L49" s="1" t="n"/>
@@ -2250,7 +2451,7 @@
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n"/>
       <c r="Y49" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2279,8 +2480,12 @@
       <c r="G50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="n"/>
-      <c r="I50" s="1" t="n"/>
+      <c r="H50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J50" s="1" t="n"/>
       <c r="K50" s="1" t="n"/>
       <c r="L50" s="1" t="n"/>
@@ -2288,7 +2493,7 @@
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n"/>
       <c r="Y50" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2317,8 +2522,12 @@
       <c r="G51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="n"/>
-      <c r="I51" s="1" t="n"/>
+      <c r="H51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J51" s="1" t="n"/>
       <c r="K51" s="1" t="n"/>
       <c r="L51" s="1" t="n"/>
@@ -2326,7 +2535,7 @@
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n"/>
       <c r="Y51" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2355,8 +2564,12 @@
       <c r="G52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="n"/>
-      <c r="I52" s="1" t="n"/>
+      <c r="H52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J52" s="1" t="n"/>
       <c r="K52" s="1" t="n"/>
       <c r="L52" s="1" t="n"/>
@@ -2364,7 +2577,7 @@
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n"/>
       <c r="Y52" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2393,8 +2606,12 @@
       <c r="G53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="n"/>
-      <c r="I53" s="1" t="n"/>
+      <c r="H53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J53" s="1" t="n"/>
       <c r="K53" s="1" t="n"/>
       <c r="L53" s="1" t="n"/>
@@ -2402,7 +2619,7 @@
       <c r="N53" s="1" t="n"/>
       <c r="O53" s="1" t="n"/>
       <c r="Y53" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2431,8 +2648,12 @@
       <c r="G54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="1" t="n"/>
-      <c r="I54" s="1" t="n"/>
+      <c r="H54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J54" s="1" t="n"/>
       <c r="K54" s="1" t="n"/>
       <c r="L54" s="1" t="n"/>
@@ -2440,7 +2661,7 @@
       <c r="N54" s="1" t="n"/>
       <c r="O54" s="1" t="n"/>
       <c r="Y54" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2469,8 +2690,12 @@
       <c r="G55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="n"/>
-      <c r="I55" s="1" t="n"/>
+      <c r="H55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J55" s="1" t="n"/>
       <c r="K55" s="1" t="n"/>
       <c r="L55" s="1" t="n"/>
@@ -2478,7 +2703,7 @@
       <c r="N55" s="1" t="n"/>
       <c r="O55" s="1" t="n"/>
       <c r="Y55" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2507,8 +2732,12 @@
       <c r="G56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="1" t="n"/>
-      <c r="I56" s="1" t="n"/>
+      <c r="H56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J56" s="1" t="n"/>
       <c r="K56" s="1" t="n"/>
       <c r="L56" s="1" t="n"/>
@@ -2516,7 +2745,7 @@
       <c r="N56" s="1" t="n"/>
       <c r="O56" s="1" t="n"/>
       <c r="Y56" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2545,8 +2774,12 @@
       <c r="G57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="n"/>
-      <c r="I57" s="1" t="n"/>
+      <c r="H57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J57" s="1" t="n"/>
       <c r="K57" s="1" t="n"/>
       <c r="L57" s="1" t="n"/>
@@ -2554,7 +2787,7 @@
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n"/>
       <c r="Y57" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2583,8 +2816,12 @@
       <c r="G58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="1" t="n"/>
-      <c r="I58" s="1" t="n"/>
+      <c r="H58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J58" s="1" t="n"/>
       <c r="K58" s="1" t="n"/>
       <c r="L58" s="1" t="n"/>
@@ -2592,7 +2829,7 @@
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n"/>
       <c r="Y58" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2621,8 +2858,12 @@
       <c r="G59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="1" t="n"/>
-      <c r="I59" s="1" t="n"/>
+      <c r="H59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J59" s="1" t="n"/>
       <c r="K59" s="1" t="n"/>
       <c r="L59" s="1" t="n"/>
@@ -2630,7 +2871,7 @@
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n"/>
       <c r="Y59" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2659,8 +2900,12 @@
       <c r="G60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="1" t="n"/>
-      <c r="I60" s="1" t="n"/>
+      <c r="H60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J60" s="1" t="n"/>
       <c r="K60" s="1" t="n"/>
       <c r="L60" s="1" t="n"/>
@@ -2668,7 +2913,7 @@
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n"/>
       <c r="Y60" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2697,8 +2942,12 @@
       <c r="G61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H61" s="1" t="n"/>
-      <c r="I61" s="1" t="n"/>
+      <c r="H61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J61" s="1" t="n"/>
       <c r="K61" s="1" t="n"/>
       <c r="L61" s="1" t="n"/>
@@ -2706,7 +2955,7 @@
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n"/>
       <c r="Y61" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2735,8 +2984,12 @@
       <c r="G62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="1" t="n"/>
-      <c r="I62" s="1" t="n"/>
+      <c r="H62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J62" s="1" t="n"/>
       <c r="K62" s="1" t="n"/>
       <c r="L62" s="1" t="n"/>
@@ -2744,7 +2997,7 @@
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n"/>
       <c r="Y62" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2773,8 +3026,12 @@
       <c r="G63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="1" t="n"/>
-      <c r="I63" s="1" t="n"/>
+      <c r="H63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J63" s="1" t="n"/>
       <c r="K63" s="1" t="n"/>
       <c r="L63" s="1" t="n"/>
@@ -2782,7 +3039,7 @@
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n"/>
       <c r="Y63" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2811,8 +3068,12 @@
       <c r="G64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H64" s="1" t="n"/>
-      <c r="I64" s="1" t="n"/>
+      <c r="H64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J64" s="1" t="n"/>
       <c r="K64" s="1" t="n"/>
       <c r="L64" s="1" t="n"/>
@@ -2820,7 +3081,7 @@
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n"/>
       <c r="Y64" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2849,8 +3110,12 @@
       <c r="G65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H65" s="1" t="n"/>
-      <c r="I65" s="1" t="n"/>
+      <c r="H65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J65" s="1" t="n"/>
       <c r="K65" s="1" t="n"/>
       <c r="L65" s="1" t="n"/>
@@ -2858,7 +3123,7 @@
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n"/>
       <c r="Y65" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2887,8 +3152,12 @@
       <c r="G66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="n"/>
-      <c r="I66" s="1" t="n"/>
+      <c r="H66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J66" s="1" t="n"/>
       <c r="K66" s="1" t="n"/>
       <c r="L66" s="1" t="n"/>
@@ -2896,7 +3165,7 @@
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n"/>
       <c r="Y66" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2925,8 +3194,12 @@
       <c r="G67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="1" t="n"/>
-      <c r="I67" s="1" t="n"/>
+      <c r="H67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J67" s="1" t="n"/>
       <c r="K67" s="1" t="n"/>
       <c r="L67" s="1" t="n"/>
@@ -2934,7 +3207,7 @@
       <c r="N67" s="1" t="n"/>
       <c r="O67" s="1" t="n"/>
       <c r="Y67" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2963,8 +3236,12 @@
       <c r="G68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="1" t="n"/>
-      <c r="I68" s="1" t="n"/>
+      <c r="H68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J68" s="1" t="n"/>
       <c r="K68" s="1" t="n"/>
       <c r="L68" s="1" t="n"/>
@@ -3001,8 +3278,12 @@
       <c r="G69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="1" t="n"/>
-      <c r="I69" s="1" t="n"/>
+      <c r="H69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J69" s="1" t="n"/>
       <c r="K69" s="1" t="n"/>
       <c r="L69" s="1" t="n"/>
@@ -3010,7 +3291,7 @@
       <c r="N69" s="1" t="n"/>
       <c r="O69" s="1" t="n"/>
       <c r="Y69" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3039,8 +3320,12 @@
       <c r="G70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H70" s="1" t="n"/>
-      <c r="I70" s="1" t="n"/>
+      <c r="H70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J70" s="1" t="n"/>
       <c r="K70" s="1" t="n"/>
       <c r="L70" s="1" t="n"/>
@@ -3048,7 +3333,7 @@
       <c r="N70" s="1" t="n"/>
       <c r="O70" s="1" t="n"/>
       <c r="Y70" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -3077,8 +3362,12 @@
       <c r="G71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H71" s="1" t="n"/>
-      <c r="I71" s="1" t="n"/>
+      <c r="H71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J71" s="1" t="n"/>
       <c r="K71" s="1" t="n"/>
       <c r="L71" s="1" t="n"/>
@@ -3086,7 +3375,7 @@
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n"/>
       <c r="Y71" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3115,8 +3404,12 @@
       <c r="G72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="1" t="n"/>
-      <c r="I72" s="1" t="n"/>
+      <c r="H72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J72" s="1" t="n"/>
       <c r="K72" s="1" t="n"/>
       <c r="L72" s="1" t="n"/>
@@ -3124,7 +3417,7 @@
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n"/>
       <c r="Y72" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3153,8 +3446,12 @@
       <c r="G73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="1" t="n"/>
-      <c r="I73" s="1" t="n"/>
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J73" s="1" t="n"/>
       <c r="K73" s="1" t="n"/>
       <c r="L73" s="1" t="n"/>
@@ -3162,7 +3459,7 @@
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n"/>
       <c r="Y73" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3191,8 +3488,12 @@
       <c r="G74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="1" t="n"/>
-      <c r="I74" s="1" t="n"/>
+      <c r="H74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J74" s="1" t="n"/>
       <c r="K74" s="1" t="n"/>
       <c r="L74" s="1" t="n"/>
@@ -3200,7 +3501,7 @@
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n"/>
       <c r="Y74" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3211,8 +3512,14 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3223,8 +3530,14 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3235,8 +3548,14 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3247,8 +3566,14 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -420,6 +420,36 @@
           <t>Attendance Session 4 - 28-September-2023</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Attendance Session 5 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Attendance Session 6 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Attendance Session 7 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Attendance Session 8 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Attendance Session 9 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Attendance Session 10 - 28-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -467,12 +497,24 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="X2" t="b">
         <v>1</v>
       </c>
@@ -512,14 +554,26 @@
       <c r="I3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -554,14 +608,26 @@
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -596,14 +662,26 @@
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -638,14 +716,26 @@
       <c r="I6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y6" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -680,14 +770,26 @@
       <c r="I7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y7" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -722,14 +824,26 @@
       <c r="I8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y8" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -764,14 +878,26 @@
       <c r="I9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y9" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -806,14 +932,26 @@
       <c r="I10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y10" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -848,14 +986,26 @@
       <c r="I11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -890,14 +1040,26 @@
       <c r="I12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="n"/>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y12" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -932,14 +1094,26 @@
       <c r="I13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y13" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -974,14 +1148,26 @@
       <c r="I14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="n"/>
-      <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1016,14 +1202,26 @@
       <c r="I15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1058,14 +1256,26 @@
       <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="n"/>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y16" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1100,14 +1310,26 @@
       <c r="I17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y17" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1142,14 +1364,26 @@
       <c r="I18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y18" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1184,14 +1418,26 @@
       <c r="I19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y19" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1226,14 +1472,26 @@
       <c r="I20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y20" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1268,14 +1526,26 @@
       <c r="I21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y21" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1310,14 +1580,26 @@
       <c r="I22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y22" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1352,14 +1634,26 @@
       <c r="I23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y23" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1394,14 +1688,26 @@
       <c r="I24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y24" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1436,14 +1742,26 @@
       <c r="I25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="1" t="n"/>
-      <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y25" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1478,14 +1796,26 @@
       <c r="I26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="1" t="n"/>
-      <c r="M26" s="1" t="n"/>
-      <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y26" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1520,14 +1850,26 @@
       <c r="I27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
-      <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="1" t="n"/>
-      <c r="O27" s="1" t="n"/>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1562,14 +1904,26 @@
       <c r="I28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
-      <c r="N28" s="1" t="n"/>
-      <c r="O28" s="1" t="n"/>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1604,14 +1958,26 @@
       <c r="I29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
-      <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y29" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1646,14 +2012,26 @@
       <c r="I30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
-      <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1688,14 +2066,26 @@
       <c r="I31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="1" t="n"/>
-      <c r="K31" s="1" t="n"/>
-      <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n"/>
-      <c r="N31" s="1" t="n"/>
-      <c r="O31" s="1" t="n"/>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1730,14 +2120,26 @@
       <c r="I32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
-      <c r="L32" s="1" t="n"/>
-      <c r="M32" s="1" t="n"/>
-      <c r="N32" s="1" t="n"/>
-      <c r="O32" s="1" t="n"/>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1772,14 +2174,26 @@
       <c r="I33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
-      <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n"/>
-      <c r="N33" s="1" t="n"/>
-      <c r="O33" s="1" t="n"/>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1814,14 +2228,26 @@
       <c r="I34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1856,14 +2282,26 @@
       <c r="I35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
-      <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n"/>
-      <c r="N35" s="1" t="n"/>
-      <c r="O35" s="1" t="n"/>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1898,14 +2336,26 @@
       <c r="I36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J36" s="1" t="n"/>
-      <c r="K36" s="1" t="n"/>
-      <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n"/>
-      <c r="O36" s="1" t="n"/>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1940,14 +2390,26 @@
       <c r="I37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="n"/>
-      <c r="K37" s="1" t="n"/>
-      <c r="L37" s="1" t="n"/>
-      <c r="M37" s="1" t="n"/>
-      <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n"/>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1982,14 +2444,26 @@
       <c r="I38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="n"/>
-      <c r="K38" s="1" t="n"/>
-      <c r="L38" s="1" t="n"/>
-      <c r="M38" s="1" t="n"/>
-      <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n"/>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2024,14 +2498,26 @@
       <c r="I39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
-      <c r="L39" s="1" t="n"/>
-      <c r="M39" s="1" t="n"/>
-      <c r="N39" s="1" t="n"/>
-      <c r="O39" s="1" t="n"/>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2066,14 +2552,26 @@
       <c r="I40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
-      <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n"/>
-      <c r="N40" s="1" t="n"/>
-      <c r="O40" s="1" t="n"/>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2108,14 +2606,26 @@
       <c r="I41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
-      <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n"/>
+      <c r="J41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2150,14 +2660,26 @@
       <c r="I42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2192,14 +2714,26 @@
       <c r="I43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-      <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
-      <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2234,14 +2768,26 @@
       <c r="I44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-      <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
-      <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
+      <c r="J44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -2276,14 +2822,26 @@
       <c r="I45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J45" s="1" t="n"/>
-      <c r="K45" s="1" t="n"/>
-      <c r="L45" s="1" t="n"/>
-      <c r="M45" s="1" t="n"/>
-      <c r="N45" s="1" t="n"/>
-      <c r="O45" s="1" t="n"/>
+      <c r="J45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2318,14 +2876,26 @@
       <c r="I46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J46" s="1" t="n"/>
-      <c r="K46" s="1" t="n"/>
-      <c r="L46" s="1" t="n"/>
-      <c r="M46" s="1" t="n"/>
-      <c r="N46" s="1" t="n"/>
-      <c r="O46" s="1" t="n"/>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2360,14 +2930,26 @@
       <c r="I47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
-      <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="n"/>
-      <c r="N47" s="1" t="n"/>
-      <c r="O47" s="1" t="n"/>
+      <c r="J47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2402,14 +2984,26 @@
       <c r="I48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
-      <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
-      <c r="N48" s="1" t="n"/>
-      <c r="O48" s="1" t="n"/>
+      <c r="J48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2444,14 +3038,26 @@
       <c r="I49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J49" s="1" t="n"/>
-      <c r="K49" s="1" t="n"/>
-      <c r="L49" s="1" t="n"/>
-      <c r="M49" s="1" t="n"/>
-      <c r="N49" s="1" t="n"/>
-      <c r="O49" s="1" t="n"/>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2486,14 +3092,26 @@
       <c r="I50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J50" s="1" t="n"/>
-      <c r="K50" s="1" t="n"/>
-      <c r="L50" s="1" t="n"/>
-      <c r="M50" s="1" t="n"/>
-      <c r="N50" s="1" t="n"/>
-      <c r="O50" s="1" t="n"/>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2528,14 +3146,26 @@
       <c r="I51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J51" s="1" t="n"/>
-      <c r="K51" s="1" t="n"/>
-      <c r="L51" s="1" t="n"/>
-      <c r="M51" s="1" t="n"/>
-      <c r="N51" s="1" t="n"/>
-      <c r="O51" s="1" t="n"/>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2570,14 +3200,26 @@
       <c r="I52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J52" s="1" t="n"/>
-      <c r="K52" s="1" t="n"/>
-      <c r="L52" s="1" t="n"/>
-      <c r="M52" s="1" t="n"/>
-      <c r="N52" s="1" t="n"/>
-      <c r="O52" s="1" t="n"/>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -2612,14 +3254,26 @@
       <c r="I53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J53" s="1" t="n"/>
-      <c r="K53" s="1" t="n"/>
-      <c r="L53" s="1" t="n"/>
-      <c r="M53" s="1" t="n"/>
-      <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n"/>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2654,14 +3308,26 @@
       <c r="I54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J54" s="1" t="n"/>
-      <c r="K54" s="1" t="n"/>
-      <c r="L54" s="1" t="n"/>
-      <c r="M54" s="1" t="n"/>
-      <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n"/>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2696,14 +3362,26 @@
       <c r="I55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J55" s="1" t="n"/>
-      <c r="K55" s="1" t="n"/>
-      <c r="L55" s="1" t="n"/>
-      <c r="M55" s="1" t="n"/>
-      <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n"/>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2738,14 +3416,26 @@
       <c r="I56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J56" s="1" t="n"/>
-      <c r="K56" s="1" t="n"/>
-      <c r="L56" s="1" t="n"/>
-      <c r="M56" s="1" t="n"/>
-      <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n"/>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y56" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2780,14 +3470,26 @@
       <c r="I57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J57" s="1" t="n"/>
-      <c r="K57" s="1" t="n"/>
-      <c r="L57" s="1" t="n"/>
-      <c r="M57" s="1" t="n"/>
-      <c r="N57" s="1" t="n"/>
-      <c r="O57" s="1" t="n"/>
+      <c r="J57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y57" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2822,14 +3524,26 @@
       <c r="I58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J58" s="1" t="n"/>
-      <c r="K58" s="1" t="n"/>
-      <c r="L58" s="1" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="N58" s="1" t="n"/>
-      <c r="O58" s="1" t="n"/>
+      <c r="J58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y58" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -2864,14 +3578,26 @@
       <c r="I59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J59" s="1" t="n"/>
-      <c r="K59" s="1" t="n"/>
-      <c r="L59" s="1" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="N59" s="1" t="n"/>
-      <c r="O59" s="1" t="n"/>
+      <c r="J59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y59" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -2906,14 +3632,26 @@
       <c r="I60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J60" s="1" t="n"/>
-      <c r="K60" s="1" t="n"/>
-      <c r="L60" s="1" t="n"/>
-      <c r="M60" s="1" t="n"/>
-      <c r="N60" s="1" t="n"/>
-      <c r="O60" s="1" t="n"/>
+      <c r="J60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y60" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -2948,14 +3686,26 @@
       <c r="I61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J61" s="1" t="n"/>
-      <c r="K61" s="1" t="n"/>
-      <c r="L61" s="1" t="n"/>
-      <c r="M61" s="1" t="n"/>
-      <c r="N61" s="1" t="n"/>
-      <c r="O61" s="1" t="n"/>
+      <c r="J61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y61" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -2990,14 +3740,26 @@
       <c r="I62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J62" s="1" t="n"/>
-      <c r="K62" s="1" t="n"/>
-      <c r="L62" s="1" t="n"/>
-      <c r="M62" s="1" t="n"/>
-      <c r="N62" s="1" t="n"/>
-      <c r="O62" s="1" t="n"/>
+      <c r="J62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y62" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3032,14 +3794,26 @@
       <c r="I63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J63" s="1" t="n"/>
-      <c r="K63" s="1" t="n"/>
-      <c r="L63" s="1" t="n"/>
-      <c r="M63" s="1" t="n"/>
-      <c r="N63" s="1" t="n"/>
-      <c r="O63" s="1" t="n"/>
+      <c r="J63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y63" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3074,14 +3848,26 @@
       <c r="I64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J64" s="1" t="n"/>
-      <c r="K64" s="1" t="n"/>
-      <c r="L64" s="1" t="n"/>
-      <c r="M64" s="1" t="n"/>
-      <c r="N64" s="1" t="n"/>
-      <c r="O64" s="1" t="n"/>
+      <c r="J64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y64" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3116,14 +3902,26 @@
       <c r="I65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J65" s="1" t="n"/>
-      <c r="K65" s="1" t="n"/>
-      <c r="L65" s="1" t="n"/>
-      <c r="M65" s="1" t="n"/>
-      <c r="N65" s="1" t="n"/>
-      <c r="O65" s="1" t="n"/>
+      <c r="J65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y65" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3158,14 +3956,26 @@
       <c r="I66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J66" s="1" t="n"/>
-      <c r="K66" s="1" t="n"/>
-      <c r="L66" s="1" t="n"/>
-      <c r="M66" s="1" t="n"/>
-      <c r="N66" s="1" t="n"/>
-      <c r="O66" s="1" t="n"/>
+      <c r="J66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y66" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -3200,14 +4010,26 @@
       <c r="I67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J67" s="1" t="n"/>
-      <c r="K67" s="1" t="n"/>
-      <c r="L67" s="1" t="n"/>
-      <c r="M67" s="1" t="n"/>
-      <c r="N67" s="1" t="n"/>
-      <c r="O67" s="1" t="n"/>
+      <c r="J67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y67" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3242,12 +4064,24 @@
       <c r="I68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="n"/>
-      <c r="K68" s="1" t="n"/>
-      <c r="L68" s="1" t="n"/>
-      <c r="M68" s="1" t="n"/>
-      <c r="N68" s="1" t="n"/>
-      <c r="O68" s="1" t="n"/>
+      <c r="J68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="Y68" s="6" t="n">
         <v>0</v>
       </c>
@@ -3284,14 +4118,26 @@
       <c r="I69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J69" s="1" t="n"/>
-      <c r="K69" s="1" t="n"/>
-      <c r="L69" s="1" t="n"/>
-      <c r="M69" s="1" t="n"/>
-      <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n"/>
+      <c r="J69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y69" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -3326,14 +4172,26 @@
       <c r="I70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J70" s="1" t="n"/>
-      <c r="K70" s="1" t="n"/>
-      <c r="L70" s="1" t="n"/>
-      <c r="M70" s="1" t="n"/>
-      <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n"/>
+      <c r="J70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y70" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3368,14 +4226,26 @@
       <c r="I71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J71" s="1" t="n"/>
-      <c r="K71" s="1" t="n"/>
-      <c r="L71" s="1" t="n"/>
-      <c r="M71" s="1" t="n"/>
-      <c r="N71" s="1" t="n"/>
-      <c r="O71" s="1" t="n"/>
+      <c r="J71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y71" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -3410,14 +4280,26 @@
       <c r="I72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J72" s="1" t="n"/>
-      <c r="K72" s="1" t="n"/>
-      <c r="L72" s="1" t="n"/>
-      <c r="M72" s="1" t="n"/>
-      <c r="N72" s="1" t="n"/>
-      <c r="O72" s="1" t="n"/>
+      <c r="J72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y72" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3452,14 +4334,26 @@
       <c r="I73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J73" s="1" t="n"/>
-      <c r="K73" s="1" t="n"/>
-      <c r="L73" s="1" t="n"/>
-      <c r="M73" s="1" t="n"/>
-      <c r="N73" s="1" t="n"/>
-      <c r="O73" s="1" t="n"/>
+      <c r="J73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y73" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3494,14 +4388,26 @@
       <c r="I74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J74" s="1" t="n"/>
-      <c r="K74" s="1" t="n"/>
-      <c r="L74" s="1" t="n"/>
-      <c r="M74" s="1" t="n"/>
-      <c r="N74" s="1" t="n"/>
-      <c r="O74" s="1" t="n"/>
+      <c r="J74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="Y74" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3518,8 +4424,26 @@
       <c r="I75" t="b">
         <v>0</v>
       </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3536,8 +4460,26 @@
       <c r="I76" t="b">
         <v>0</v>
       </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3554,8 +4496,26 @@
       <c r="I77" t="b">
         <v>0</v>
       </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -3572,8 +4532,26 @@
       <c r="I78" t="b">
         <v>0</v>
       </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -450,6 +450,11 @@
           <t>Attendance Session 10 - 28-September-2023</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Attendance Session 11 - 28-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -515,11 +520,14 @@
       <c r="O2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
       <c r="X2" t="b">
         <v>1</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -572,8 +580,11 @@
       <c r="O3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -626,8 +637,11 @@
       <c r="O4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -680,8 +694,11 @@
       <c r="O5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -734,8 +751,11 @@
       <c r="O6" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
       <c r="Y6" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -788,8 +808,11 @@
       <c r="O7" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
       <c r="Y7" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -842,8 +865,11 @@
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
       <c r="Y8" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -896,8 +922,11 @@
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
       <c r="Y9" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -950,8 +979,11 @@
       <c r="O10" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
       <c r="Y10" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1004,8 +1036,11 @@
       <c r="O11" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1058,8 +1093,11 @@
       <c r="O12" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
       <c r="Y12" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1112,8 +1150,11 @@
       <c r="O13" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
       <c r="Y13" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1166,8 +1207,11 @@
       <c r="O14" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1220,8 +1264,11 @@
       <c r="O15" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1274,8 +1321,11 @@
       <c r="O16" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
       <c r="Y16" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1328,8 +1378,11 @@
       <c r="O17" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
       <c r="Y17" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1382,8 +1435,11 @@
       <c r="O18" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
       <c r="Y18" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1436,8 +1492,11 @@
       <c r="O19" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
       <c r="Y19" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1490,8 +1549,11 @@
       <c r="O20" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
       <c r="Y20" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1544,8 +1606,11 @@
       <c r="O21" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
       <c r="Y21" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1598,8 +1663,11 @@
       <c r="O22" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
       <c r="Y22" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1652,8 +1720,11 @@
       <c r="O23" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
       <c r="Y23" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1706,8 +1777,11 @@
       <c r="O24" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
       <c r="Y24" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1760,8 +1834,11 @@
       <c r="O25" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
       <c r="Y25" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1814,8 +1891,11 @@
       <c r="O26" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
       <c r="Y26" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1868,8 +1948,11 @@
       <c r="O27" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1922,8 +2005,11 @@
       <c r="O28" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1976,8 +2062,11 @@
       <c r="O29" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
       <c r="Y29" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2030,8 +2119,11 @@
       <c r="O30" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -2084,8 +2176,11 @@
       <c r="O31" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -2138,8 +2233,11 @@
       <c r="O32" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -2192,8 +2290,11 @@
       <c r="O33" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -2246,8 +2347,11 @@
       <c r="O34" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2300,8 +2404,11 @@
       <c r="O35" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2354,8 +2461,11 @@
       <c r="O36" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2408,8 +2518,11 @@
       <c r="O37" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2462,8 +2575,11 @@
       <c r="O38" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -2516,8 +2632,11 @@
       <c r="O39" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2570,8 +2689,11 @@
       <c r="O40" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -2624,8 +2746,11 @@
       <c r="O41" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2678,8 +2803,11 @@
       <c r="O42" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2732,8 +2860,11 @@
       <c r="O43" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2786,8 +2917,11 @@
       <c r="O44" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -2840,8 +2974,11 @@
       <c r="O45" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -2894,8 +3031,11 @@
       <c r="O46" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2948,8 +3088,11 @@
       <c r="O47" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -3002,8 +3145,11 @@
       <c r="O48" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -3056,8 +3202,11 @@
       <c r="O49" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -3110,8 +3259,11 @@
       <c r="O50" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -3164,8 +3316,11 @@
       <c r="O51" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -3218,8 +3373,11 @@
       <c r="O52" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -3272,8 +3430,11 @@
       <c r="O53" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -3326,8 +3487,11 @@
       <c r="O54" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -3380,8 +3544,11 @@
       <c r="O55" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -3434,8 +3601,11 @@
       <c r="O56" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
       <c r="Y56" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -3488,8 +3658,11 @@
       <c r="O57" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
       <c r="Y57" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -3542,8 +3715,11 @@
       <c r="O58" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
       <c r="Y58" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -3596,8 +3772,11 @@
       <c r="O59" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
       <c r="Y59" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3650,8 +3829,11 @@
       <c r="O60" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
       <c r="Y60" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -3704,8 +3886,11 @@
       <c r="O61" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
       <c r="Y61" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -3758,8 +3943,11 @@
       <c r="O62" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
       <c r="Y62" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3812,8 +4000,11 @@
       <c r="O63" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
       <c r="Y63" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -3866,8 +4057,11 @@
       <c r="O64" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
       <c r="Y64" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -3920,8 +4114,11 @@
       <c r="O65" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
       <c r="Y65" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -3974,8 +4171,11 @@
       <c r="O66" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
       <c r="Y66" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -4028,8 +4228,11 @@
       <c r="O67" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
       <c r="Y67" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -4082,6 +4285,9 @@
       <c r="O68" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
       <c r="Y68" s="6" t="n">
         <v>0</v>
       </c>
@@ -4136,8 +4342,11 @@
       <c r="O69" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
       <c r="Y69" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -4190,8 +4399,11 @@
       <c r="O70" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
       <c r="Y70" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -4244,8 +4456,11 @@
       <c r="O71" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
       <c r="Y71" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -4298,8 +4513,11 @@
       <c r="O72" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
       <c r="Y72" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -4352,8 +4570,11 @@
       <c r="O73" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
       <c r="Y73" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -4406,8 +4627,11 @@
       <c r="O74" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
       <c r="Y74" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -4442,8 +4666,11 @@
       <c r="O75" t="b">
         <v>0</v>
       </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -4478,8 +4705,11 @@
       <c r="O76" t="b">
         <v>0</v>
       </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -4514,8 +4744,11 @@
       <c r="O77" t="b">
         <v>0</v>
       </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -4550,8 +4783,11 @@
       <c r="O78" t="b">
         <v>0</v>
       </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -357,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -366,7 +366,9 @@
     <col width="8.59765625" customWidth="1" min="1" max="1"/>
     <col width="14.09765625" customWidth="1" min="2" max="2"/>
     <col width="16.3984375" customWidth="1" min="3" max="3"/>
-    <col width="8.59765625" customWidth="1" min="4" max="9"/>
+    <col width="8.59765625" customWidth="1" min="4" max="5"/>
+    <col width="23.59765625" customWidth="1" min="6" max="6"/>
+    <col width="8.59765625" customWidth="1" min="7" max="9"/>
     <col width="20.8984375" customWidth="1" min="10" max="10"/>
     <col width="8.59765625" customWidth="1" min="11" max="22"/>
     <col width="3.59765625" customWidth="1" min="23" max="23"/>
@@ -402,59 +404,15 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Attendance Session 1 - 27-September-2023</t>
+          <t>Attendance Session 1 - 28-September-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Attendance Session 2 - 27-September-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Attendance Session 3 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Attendance Session 4 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Attendance Session 5 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Attendance Session 6 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Attendance Session 7 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Attendance Session 8 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Attendance Session 9 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Attendance Session 10 - 28-September-2023</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Attendance Session 11 - 28-September-2023</t>
-        </is>
-      </c>
+          <t>Attendance Session 2 - 28-September-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="n"/>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -496,38 +454,19 @@
       <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
       <c r="X2" t="b">
         <v>1</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +495,16 @@
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
       <c r="Y3" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -613,35 +533,16 @@
       <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
       <c r="Y4" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -670,35 +571,16 @@
       <c r="G5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
       <c r="Y5" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -727,35 +609,16 @@
       <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
       <c r="Y6" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -784,35 +647,16 @@
       <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
       <c r="Y7" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -841,35 +685,16 @@
       <c r="G8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
       <c r="Y8" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -898,35 +723,16 @@
       <c r="G9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
       <c r="Y9" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -955,35 +761,16 @@
       <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
       <c r="Y10" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1012,35 +799,16 @@
       <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
       <c r="Y11" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1069,35 +837,16 @@
       <c r="G12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
       <c r="Y12" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1126,35 +875,16 @@
       <c r="G13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
       <c r="Y13" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1183,35 +913,16 @@
       <c r="G14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
       <c r="Y14" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1240,35 +951,16 @@
       <c r="G15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
       <c r="Y15" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1297,35 +989,16 @@
       <c r="G16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
       <c r="Y16" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1354,35 +1027,16 @@
       <c r="G17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
       <c r="Y17" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1411,35 +1065,16 @@
       <c r="G18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
       <c r="Y18" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1468,35 +1103,16 @@
       <c r="G19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
       <c r="Y19" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1525,35 +1141,16 @@
       <c r="G20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
       <c r="Y20" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1582,35 +1179,16 @@
       <c r="G21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
       <c r="Y21" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1639,35 +1217,16 @@
       <c r="G22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
       <c r="Y22" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1696,35 +1255,16 @@
       <c r="G23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
       <c r="Y23" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1753,35 +1293,16 @@
       <c r="G24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
       <c r="Y24" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1810,35 +1331,16 @@
       <c r="G25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
       <c r="Y25" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1867,35 +1369,16 @@
       <c r="G26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
       <c r="Y26" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1924,35 +1407,16 @@
       <c r="G27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
       <c r="Y27" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1981,35 +1445,16 @@
       <c r="G28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
       <c r="Y28" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2038,35 +1483,16 @@
       <c r="G29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
       <c r="Y29" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2095,35 +1521,16 @@
       <c r="G30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
       <c r="Y30" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2152,35 +1559,16 @@
       <c r="G31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
       <c r="Y31" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2209,35 +1597,16 @@
       <c r="G32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
       <c r="Y32" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2266,35 +1635,16 @@
       <c r="G33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
       <c r="Y33" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2323,35 +1673,16 @@
       <c r="G34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
       <c r="Y34" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2380,35 +1711,16 @@
       <c r="G35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
       <c r="Y35" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2437,35 +1749,16 @@
       <c r="G36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
       <c r="Y36" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2494,35 +1787,16 @@
       <c r="G37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
       <c r="Y37" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2551,35 +1825,16 @@
       <c r="G38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
       <c r="Y38" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2608,35 +1863,16 @@
       <c r="G39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
       <c r="Y39" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2665,35 +1901,16 @@
       <c r="G40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
       <c r="Y40" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2722,35 +1939,16 @@
       <c r="G41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
       <c r="Y41" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2779,35 +1977,16 @@
       <c r="G42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
       <c r="Y42" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2836,35 +2015,16 @@
       <c r="G43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
       <c r="Y43" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2893,35 +2053,16 @@
       <c r="G44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
       <c r="Y44" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2950,35 +2091,16 @@
       <c r="G45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
       <c r="Y45" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -3007,35 +2129,16 @@
       <c r="G46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
       <c r="Y46" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3064,35 +2167,16 @@
       <c r="G47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
       <c r="Y47" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3121,35 +2205,16 @@
       <c r="G48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
       <c r="Y48" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -3178,35 +2243,16 @@
       <c r="G49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
       <c r="Y49" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3235,35 +2281,16 @@
       <c r="G50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
       <c r="Y50" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -3292,35 +2319,16 @@
       <c r="G51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
       <c r="Y51" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3349,35 +2357,16 @@
       <c r="G52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
       <c r="Y52" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -3406,35 +2395,16 @@
       <c r="G53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
       <c r="Y53" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -3463,35 +2433,16 @@
       <c r="G54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
       <c r="Y54" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -3520,35 +2471,16 @@
       <c r="G55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
       <c r="Y55" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3577,35 +2509,16 @@
       <c r="G56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
       <c r="Y56" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3634,35 +2547,16 @@
       <c r="G57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
       <c r="Y57" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3691,35 +2585,16 @@
       <c r="G58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
       <c r="Y58" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3748,35 +2623,16 @@
       <c r="G59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
       <c r="Y59" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3805,35 +2661,16 @@
       <c r="G60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
       <c r="Y60" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3862,35 +2699,16 @@
       <c r="G61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
       <c r="Y61" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3919,35 +2737,16 @@
       <c r="G62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
       <c r="Y62" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3976,35 +2775,16 @@
       <c r="G63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
       <c r="Y63" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -4033,35 +2813,16 @@
       <c r="G64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
       <c r="Y64" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4090,35 +2851,16 @@
       <c r="G65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
       <c r="Y65" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -4147,35 +2889,16 @@
       <c r="G66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
       <c r="Y66" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -4204,35 +2927,16 @@
       <c r="G67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
       <c r="Y67" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -4261,33 +2965,14 @@
       <c r="G68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
       <c r="Y68" s="6" t="n">
         <v>0</v>
       </c>
@@ -4318,35 +3003,16 @@
       <c r="G69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
       <c r="Y69" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4375,35 +3041,16 @@
       <c r="G70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
       <c r="Y70" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4432,35 +3079,16 @@
       <c r="G71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
       <c r="Y71" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4489,35 +3117,16 @@
       <c r="G72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
       <c r="Y72" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4546,35 +3155,16 @@
       <c r="G73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
       <c r="Y73" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -4603,35 +3193,16 @@
       <c r="G74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
       <c r="Y74" s="6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -4642,35 +3213,8 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" t="b">
-        <v>0</v>
-      </c>
-      <c r="M75" t="b">
-        <v>0</v>
-      </c>
-      <c r="N75" t="b">
-        <v>0</v>
-      </c>
-      <c r="O75" t="b">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
       <c r="Y75" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -4681,35 +3225,8 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" t="b">
-        <v>0</v>
-      </c>
-      <c r="M76" t="b">
-        <v>0</v>
-      </c>
-      <c r="N76" t="b">
-        <v>0</v>
-      </c>
-      <c r="O76" t="b">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
       <c r="Y76" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -4720,35 +3237,8 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" t="b">
-        <v>0</v>
-      </c>
-      <c r="M77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N77" t="b">
-        <v>0</v>
-      </c>
-      <c r="O77" t="b">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
       <c r="Y77" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -4759,35 +3249,8 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" t="b">
-        <v>0</v>
-      </c>
-      <c r="M78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78" t="b">
-        <v>0</v>
-      </c>
-      <c r="O78" t="b">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -357,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -384,7 +384,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mã SV</t>
+          <t>Attendance Session 29 - 29-September-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -404,15 +404,35 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Attendance Session 1 - 28-September-2023</t>
+          <t>Attendance Session 1 - 29-September-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Attendance Session 2 - 28-September-2023</t>
+          <t>Attendance Session 2 - 29-September-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Attendance Session 4 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Attendance Session 5 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Attendance Session 6 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Attendance Session 7 - 29-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -455,10 +475,18 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
-      <c r="K2" s="1" t="n"/>
-      <c r="L2" s="1" t="n"/>
+      <c r="I2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
       <c r="O2" s="1" t="n"/>
@@ -466,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -496,15 +524,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n"/>
       <c r="Y3" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -534,15 +570,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="n"/>
-      <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="n"/>
-      <c r="K4" s="1" t="n"/>
-      <c r="L4" s="1" t="n"/>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
       <c r="O4" s="1" t="n"/>
       <c r="Y4" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -572,15 +616,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n"/>
-      <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="n"/>
-      <c r="K5" s="1" t="n"/>
-      <c r="L5" s="1" t="n"/>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
       <c r="Y5" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -610,15 +662,23 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="n"/>
-      <c r="I6" s="1" t="n"/>
-      <c r="J6" s="1" t="n"/>
-      <c r="K6" s="1" t="n"/>
-      <c r="L6" s="1" t="n"/>
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="Y6" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -648,15 +708,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="1" t="n"/>
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="Y7" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -686,15 +754,23 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
-      <c r="L8" s="1" t="n"/>
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="Y8" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -724,15 +800,23 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="n"/>
-      <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
-      <c r="L9" s="1" t="n"/>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
       <c r="Y9" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -762,15 +846,23 @@
         <v>0</v>
       </c>
       <c r="H10" s="1" t="n"/>
-      <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="n"/>
-      <c r="K10" s="1" t="n"/>
-      <c r="L10" s="1" t="n"/>
+      <c r="I10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
       <c r="Y10" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -800,15 +892,23 @@
         <v>0</v>
       </c>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="n"/>
-      <c r="K11" s="1" t="n"/>
-      <c r="L11" s="1" t="n"/>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
       <c r="Y11" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -838,15 +938,23 @@
         <v>0</v>
       </c>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="n"/>
-      <c r="K12" s="1" t="n"/>
-      <c r="L12" s="1" t="n"/>
+      <c r="I12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
       <c r="O12" s="1" t="n"/>
       <c r="Y12" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -876,15 +984,23 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="n"/>
-      <c r="K13" s="1" t="n"/>
-      <c r="L13" s="1" t="n"/>
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="Y13" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -914,15 +1030,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="1" t="n"/>
-      <c r="I14" s="1" t="n"/>
-      <c r="J14" s="1" t="n"/>
-      <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="Y14" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -952,15 +1076,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="n"/>
-      <c r="I15" s="1" t="n"/>
-      <c r="J15" s="1" t="n"/>
-      <c r="K15" s="1" t="n"/>
-      <c r="L15" s="1" t="n"/>
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="Y15" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -990,15 +1122,23 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="n"/>
-      <c r="I16" s="1" t="n"/>
-      <c r="J16" s="1" t="n"/>
-      <c r="K16" s="1" t="n"/>
-      <c r="L16" s="1" t="n"/>
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="Y16" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1028,15 +1168,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="n"/>
-      <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="n"/>
-      <c r="K17" s="1" t="n"/>
-      <c r="L17" s="1" t="n"/>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="Y17" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1066,15 +1214,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="n"/>
-      <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="n"/>
-      <c r="K18" s="1" t="n"/>
-      <c r="L18" s="1" t="n"/>
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="Y18" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1104,15 +1260,23 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="n"/>
-      <c r="I19" s="1" t="n"/>
-      <c r="J19" s="1" t="n"/>
-      <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n"/>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M19" s="1" t="n"/>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
       <c r="Y19" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1142,15 +1306,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
-      <c r="L20" s="1" t="n"/>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
       <c r="Y20" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1180,15 +1352,23 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
-      <c r="L21" s="1" t="n"/>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n"/>
       <c r="Y21" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1218,15 +1398,23 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
-      <c r="L22" s="1" t="n"/>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n"/>
       <c r="Y22" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1256,15 +1444,23 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
-      <c r="L23" s="1" t="n"/>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
       <c r="Y23" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1294,15 +1490,23 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
-      <c r="L24" s="1" t="n"/>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n"/>
       <c r="Y24" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1332,15 +1536,23 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
-      <c r="J25" s="1" t="n"/>
-      <c r="K25" s="1" t="n"/>
-      <c r="L25" s="1" t="n"/>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
       <c r="Y25" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1370,15 +1582,23 @@
         <v>0</v>
       </c>
       <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
-      <c r="J26" s="1" t="n"/>
-      <c r="K26" s="1" t="n"/>
-      <c r="L26" s="1" t="n"/>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
       <c r="Y26" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1408,15 +1628,23 @@
         <v>0</v>
       </c>
       <c r="H27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
-      <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
-      <c r="L27" s="1" t="n"/>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
       <c r="Y27" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1446,15 +1674,23 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
-      <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n"/>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
       <c r="Y28" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1484,15 +1720,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
-      <c r="L29" s="1" t="n"/>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n"/>
       <c r="Y29" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1522,15 +1766,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
-      <c r="L30" s="1" t="n"/>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n"/>
       <c r="Y30" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1560,15 +1812,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
-      <c r="J31" s="1" t="n"/>
-      <c r="K31" s="1" t="n"/>
-      <c r="L31" s="1" t="n"/>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n"/>
       <c r="Y31" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1598,15 +1858,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="n"/>
-      <c r="I32" s="1" t="n"/>
-      <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
-      <c r="L32" s="1" t="n"/>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
       <c r="O32" s="1" t="n"/>
       <c r="Y32" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1636,15 +1904,23 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n"/>
-      <c r="I33" s="1" t="n"/>
-      <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
-      <c r="L33" s="1" t="n"/>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
       <c r="O33" s="1" t="n"/>
       <c r="Y33" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1674,15 +1950,23 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n"/>
-      <c r="K34" s="1" t="n"/>
-      <c r="L34" s="1" t="n"/>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
       <c r="O34" s="1" t="n"/>
       <c r="Y34" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1712,15 +1996,23 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="n"/>
-      <c r="I35" s="1" t="n"/>
-      <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
-      <c r="L35" s="1" t="n"/>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
       <c r="O35" s="1" t="n"/>
       <c r="Y35" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1750,15 +2042,23 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="n"/>
-      <c r="I36" s="1" t="n"/>
-      <c r="J36" s="1" t="n"/>
-      <c r="K36" s="1" t="n"/>
-      <c r="L36" s="1" t="n"/>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
       <c r="O36" s="1" t="n"/>
       <c r="Y36" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1788,15 +2088,23 @@
         <v>0</v>
       </c>
       <c r="H37" s="1" t="n"/>
-      <c r="I37" s="1" t="n"/>
-      <c r="J37" s="1" t="n"/>
-      <c r="K37" s="1" t="n"/>
-      <c r="L37" s="1" t="n"/>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M37" s="1" t="n"/>
       <c r="N37" s="1" t="n"/>
       <c r="O37" s="1" t="n"/>
       <c r="Y37" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1826,15 +2134,23 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
-      <c r="J38" s="1" t="n"/>
-      <c r="K38" s="1" t="n"/>
-      <c r="L38" s="1" t="n"/>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
       <c r="O38" s="1" t="n"/>
       <c r="Y38" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1864,15 +2180,23 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
-      <c r="J39" s="1" t="n"/>
-      <c r="K39" s="1" t="n"/>
-      <c r="L39" s="1" t="n"/>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M39" s="1" t="n"/>
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n"/>
       <c r="Y39" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1902,15 +2226,23 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n"/>
-      <c r="K40" s="1" t="n"/>
-      <c r="L40" s="1" t="n"/>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n"/>
       <c r="Y40" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1940,15 +2272,23 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
-      <c r="K41" s="1" t="n"/>
-      <c r="L41" s="1" t="n"/>
+      <c r="I41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M41" s="1" t="n"/>
       <c r="N41" s="1" t="n"/>
       <c r="O41" s="1" t="n"/>
       <c r="Y41" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1978,15 +2318,23 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
-      <c r="L42" s="1" t="n"/>
+      <c r="I42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M42" s="1" t="n"/>
       <c r="N42" s="1" t="n"/>
       <c r="O42" s="1" t="n"/>
       <c r="Y42" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2016,15 +2364,23 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
-      <c r="L43" s="1" t="n"/>
+      <c r="I43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M43" s="1" t="n"/>
       <c r="N43" s="1" t="n"/>
       <c r="O43" s="1" t="n"/>
       <c r="Y43" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2054,15 +2410,23 @@
         <v>0</v>
       </c>
       <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
-      <c r="K44" s="1" t="n"/>
-      <c r="L44" s="1" t="n"/>
+      <c r="I44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M44" s="1" t="n"/>
       <c r="N44" s="1" t="n"/>
       <c r="O44" s="1" t="n"/>
       <c r="Y44" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2092,15 +2456,23 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="n"/>
-      <c r="I45" s="1" t="n"/>
-      <c r="J45" s="1" t="n"/>
-      <c r="K45" s="1" t="n"/>
-      <c r="L45" s="1" t="n"/>
+      <c r="I45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M45" s="1" t="n"/>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n"/>
       <c r="Y45" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2130,15 +2502,23 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="n"/>
-      <c r="I46" s="1" t="n"/>
-      <c r="J46" s="1" t="n"/>
-      <c r="K46" s="1" t="n"/>
-      <c r="L46" s="1" t="n"/>
+      <c r="I46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M46" s="1" t="n"/>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n"/>
       <c r="Y46" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2168,15 +2548,23 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="n"/>
-      <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
-      <c r="L47" s="1" t="n"/>
+      <c r="I47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M47" s="1" t="n"/>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n"/>
       <c r="Y47" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2206,15 +2594,23 @@
         <v>0</v>
       </c>
       <c r="H48" s="1" t="n"/>
-      <c r="I48" s="1" t="n"/>
-      <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
-      <c r="L48" s="1" t="n"/>
+      <c r="I48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M48" s="1" t="n"/>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n"/>
       <c r="Y48" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2244,15 +2640,23 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="n"/>
-      <c r="I49" s="1" t="n"/>
-      <c r="J49" s="1" t="n"/>
-      <c r="K49" s="1" t="n"/>
-      <c r="L49" s="1" t="n"/>
+      <c r="I49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M49" s="1" t="n"/>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n"/>
       <c r="Y49" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2282,15 +2686,23 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="n"/>
-      <c r="I50" s="1" t="n"/>
-      <c r="J50" s="1" t="n"/>
-      <c r="K50" s="1" t="n"/>
-      <c r="L50" s="1" t="n"/>
+      <c r="I50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M50" s="1" t="n"/>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n"/>
       <c r="Y50" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2320,15 +2732,23 @@
         <v>0</v>
       </c>
       <c r="H51" s="1" t="n"/>
-      <c r="I51" s="1" t="n"/>
-      <c r="J51" s="1" t="n"/>
-      <c r="K51" s="1" t="n"/>
-      <c r="L51" s="1" t="n"/>
+      <c r="I51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M51" s="1" t="n"/>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n"/>
       <c r="Y51" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2358,15 +2778,23 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="n"/>
-      <c r="I52" s="1" t="n"/>
-      <c r="J52" s="1" t="n"/>
-      <c r="K52" s="1" t="n"/>
-      <c r="L52" s="1" t="n"/>
+      <c r="I52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M52" s="1" t="n"/>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n"/>
       <c r="Y52" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2396,15 +2824,23 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="n"/>
-      <c r="I53" s="1" t="n"/>
-      <c r="J53" s="1" t="n"/>
-      <c r="K53" s="1" t="n"/>
-      <c r="L53" s="1" t="n"/>
+      <c r="I53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M53" s="1" t="n"/>
       <c r="N53" s="1" t="n"/>
       <c r="O53" s="1" t="n"/>
       <c r="Y53" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2434,15 +2870,23 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="n"/>
-      <c r="I54" s="1" t="n"/>
-      <c r="J54" s="1" t="n"/>
-      <c r="K54" s="1" t="n"/>
-      <c r="L54" s="1" t="n"/>
+      <c r="I54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M54" s="1" t="n"/>
       <c r="N54" s="1" t="n"/>
       <c r="O54" s="1" t="n"/>
       <c r="Y54" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2472,15 +2916,23 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="n"/>
-      <c r="I55" s="1" t="n"/>
-      <c r="J55" s="1" t="n"/>
-      <c r="K55" s="1" t="n"/>
-      <c r="L55" s="1" t="n"/>
+      <c r="I55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M55" s="1" t="n"/>
       <c r="N55" s="1" t="n"/>
       <c r="O55" s="1" t="n"/>
       <c r="Y55" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2510,15 +2962,23 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="n"/>
-      <c r="I56" s="1" t="n"/>
-      <c r="J56" s="1" t="n"/>
-      <c r="K56" s="1" t="n"/>
-      <c r="L56" s="1" t="n"/>
+      <c r="I56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M56" s="1" t="n"/>
       <c r="N56" s="1" t="n"/>
       <c r="O56" s="1" t="n"/>
       <c r="Y56" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2548,15 +3008,23 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="n"/>
-      <c r="I57" s="1" t="n"/>
-      <c r="J57" s="1" t="n"/>
-      <c r="K57" s="1" t="n"/>
-      <c r="L57" s="1" t="n"/>
+      <c r="I57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M57" s="1" t="n"/>
       <c r="N57" s="1" t="n"/>
       <c r="O57" s="1" t="n"/>
       <c r="Y57" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2586,15 +3054,23 @@
         <v>0</v>
       </c>
       <c r="H58" s="1" t="n"/>
-      <c r="I58" s="1" t="n"/>
-      <c r="J58" s="1" t="n"/>
-      <c r="K58" s="1" t="n"/>
-      <c r="L58" s="1" t="n"/>
+      <c r="I58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M58" s="1" t="n"/>
       <c r="N58" s="1" t="n"/>
       <c r="O58" s="1" t="n"/>
       <c r="Y58" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -2624,15 +3100,23 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="n"/>
-      <c r="I59" s="1" t="n"/>
-      <c r="J59" s="1" t="n"/>
-      <c r="K59" s="1" t="n"/>
-      <c r="L59" s="1" t="n"/>
+      <c r="I59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M59" s="1" t="n"/>
       <c r="N59" s="1" t="n"/>
       <c r="O59" s="1" t="n"/>
       <c r="Y59" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -2662,15 +3146,23 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="n"/>
-      <c r="I60" s="1" t="n"/>
-      <c r="J60" s="1" t="n"/>
-      <c r="K60" s="1" t="n"/>
-      <c r="L60" s="1" t="n"/>
+      <c r="I60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M60" s="1" t="n"/>
       <c r="N60" s="1" t="n"/>
       <c r="O60" s="1" t="n"/>
       <c r="Y60" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -2700,15 +3192,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="n"/>
-      <c r="I61" s="1" t="n"/>
-      <c r="J61" s="1" t="n"/>
-      <c r="K61" s="1" t="n"/>
-      <c r="L61" s="1" t="n"/>
+      <c r="I61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M61" s="1" t="n"/>
       <c r="N61" s="1" t="n"/>
       <c r="O61" s="1" t="n"/>
       <c r="Y61" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2738,15 +3238,23 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="n"/>
-      <c r="I62" s="1" t="n"/>
-      <c r="J62" s="1" t="n"/>
-      <c r="K62" s="1" t="n"/>
-      <c r="L62" s="1" t="n"/>
+      <c r="I62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M62" s="1" t="n"/>
       <c r="N62" s="1" t="n"/>
       <c r="O62" s="1" t="n"/>
       <c r="Y62" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2776,15 +3284,23 @@
         <v>0</v>
       </c>
       <c r="H63" s="1" t="n"/>
-      <c r="I63" s="1" t="n"/>
-      <c r="J63" s="1" t="n"/>
-      <c r="K63" s="1" t="n"/>
-      <c r="L63" s="1" t="n"/>
+      <c r="I63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M63" s="1" t="n"/>
       <c r="N63" s="1" t="n"/>
       <c r="O63" s="1" t="n"/>
       <c r="Y63" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -2814,15 +3330,23 @@
         <v>0</v>
       </c>
       <c r="H64" s="1" t="n"/>
-      <c r="I64" s="1" t="n"/>
-      <c r="J64" s="1" t="n"/>
-      <c r="K64" s="1" t="n"/>
-      <c r="L64" s="1" t="n"/>
+      <c r="I64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M64" s="1" t="n"/>
       <c r="N64" s="1" t="n"/>
       <c r="O64" s="1" t="n"/>
       <c r="Y64" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -2852,15 +3376,23 @@
         <v>0</v>
       </c>
       <c r="H65" s="1" t="n"/>
-      <c r="I65" s="1" t="n"/>
-      <c r="J65" s="1" t="n"/>
-      <c r="K65" s="1" t="n"/>
-      <c r="L65" s="1" t="n"/>
+      <c r="I65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M65" s="1" t="n"/>
       <c r="N65" s="1" t="n"/>
       <c r="O65" s="1" t="n"/>
       <c r="Y65" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2890,15 +3422,23 @@
         <v>0</v>
       </c>
       <c r="H66" s="1" t="n"/>
-      <c r="I66" s="1" t="n"/>
-      <c r="J66" s="1" t="n"/>
-      <c r="K66" s="1" t="n"/>
-      <c r="L66" s="1" t="n"/>
+      <c r="I66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M66" s="1" t="n"/>
       <c r="N66" s="1" t="n"/>
       <c r="O66" s="1" t="n"/>
       <c r="Y66" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2928,15 +3468,23 @@
         <v>0</v>
       </c>
       <c r="H67" s="1" t="n"/>
-      <c r="I67" s="1" t="n"/>
-      <c r="J67" s="1" t="n"/>
-      <c r="K67" s="1" t="n"/>
-      <c r="L67" s="1" t="n"/>
+      <c r="I67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M67" s="1" t="n"/>
       <c r="N67" s="1" t="n"/>
       <c r="O67" s="1" t="n"/>
       <c r="Y67" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2966,10 +3514,18 @@
         <v>1</v>
       </c>
       <c r="H68" s="1" t="n"/>
-      <c r="I68" s="1" t="n"/>
-      <c r="J68" s="1" t="n"/>
-      <c r="K68" s="1" t="n"/>
-      <c r="L68" s="1" t="n"/>
+      <c r="I68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="M68" s="1" t="n"/>
       <c r="N68" s="1" t="n"/>
       <c r="O68" s="1" t="n"/>
@@ -3004,15 +3560,23 @@
         <v>0</v>
       </c>
       <c r="H69" s="1" t="n"/>
-      <c r="I69" s="1" t="n"/>
-      <c r="J69" s="1" t="n"/>
-      <c r="K69" s="1" t="n"/>
-      <c r="L69" s="1" t="n"/>
+      <c r="I69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M69" s="1" t="n"/>
       <c r="N69" s="1" t="n"/>
       <c r="O69" s="1" t="n"/>
       <c r="Y69" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3042,15 +3606,23 @@
         <v>0</v>
       </c>
       <c r="H70" s="1" t="n"/>
-      <c r="I70" s="1" t="n"/>
-      <c r="J70" s="1" t="n"/>
-      <c r="K70" s="1" t="n"/>
-      <c r="L70" s="1" t="n"/>
+      <c r="I70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M70" s="1" t="n"/>
       <c r="N70" s="1" t="n"/>
       <c r="O70" s="1" t="n"/>
       <c r="Y70" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3080,15 +3652,23 @@
         <v>0</v>
       </c>
       <c r="H71" s="1" t="n"/>
-      <c r="I71" s="1" t="n"/>
-      <c r="J71" s="1" t="n"/>
-      <c r="K71" s="1" t="n"/>
-      <c r="L71" s="1" t="n"/>
+      <c r="I71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M71" s="1" t="n"/>
       <c r="N71" s="1" t="n"/>
       <c r="O71" s="1" t="n"/>
       <c r="Y71" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -3118,15 +3698,23 @@
         <v>0</v>
       </c>
       <c r="H72" s="1" t="n"/>
-      <c r="I72" s="1" t="n"/>
-      <c r="J72" s="1" t="n"/>
-      <c r="K72" s="1" t="n"/>
-      <c r="L72" s="1" t="n"/>
+      <c r="I72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M72" s="1" t="n"/>
       <c r="N72" s="1" t="n"/>
       <c r="O72" s="1" t="n"/>
       <c r="Y72" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3156,15 +3744,23 @@
         <v>0</v>
       </c>
       <c r="H73" s="1" t="n"/>
-      <c r="I73" s="1" t="n"/>
-      <c r="J73" s="1" t="n"/>
-      <c r="K73" s="1" t="n"/>
-      <c r="L73" s="1" t="n"/>
+      <c r="I73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M73" s="1" t="n"/>
       <c r="N73" s="1" t="n"/>
       <c r="O73" s="1" t="n"/>
       <c r="Y73" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3194,15 +3790,23 @@
         <v>0</v>
       </c>
       <c r="H74" s="1" t="n"/>
-      <c r="I74" s="1" t="n"/>
-      <c r="J74" s="1" t="n"/>
-      <c r="K74" s="1" t="n"/>
-      <c r="L74" s="1" t="n"/>
+      <c r="I74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="M74" s="1" t="n"/>
       <c r="N74" s="1" t="n"/>
       <c r="O74" s="1" t="n"/>
       <c r="Y74" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -3213,8 +3817,20 @@
       <c r="G75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3225,8 +3841,20 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3237,8 +3865,20 @@
       <c r="G77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3249,8 +3889,20 @@
       <c r="G78" t="b">
         <v>0</v>
       </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -433,6 +433,31 @@
           <t>Attendance Session 7 - 29-September-2023</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Attendance Session 8 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Attendance Session 9 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Attendance Session 10 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Attendance Session 11 - 29-September-2023</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Attendance Session 12 - 29-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -487,14 +512,26 @@
       <c r="L2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="n"/>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="1" t="n"/>
+      <c r="M2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
       <c r="X2" t="b">
         <v>1</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -536,11 +573,23 @@
       <c r="L3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="1" t="n"/>
+      <c r="M3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -582,11 +631,23 @@
       <c r="L4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n"/>
-      <c r="O4" s="1" t="n"/>
+      <c r="M4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -628,11 +689,23 @@
       <c r="L5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n"/>
-      <c r="O5" s="1" t="n"/>
+      <c r="M5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -674,11 +747,23 @@
       <c r="L6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n"/>
-      <c r="O6" s="1" t="n"/>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
       <c r="Y6" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -720,11 +805,23 @@
       <c r="L7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n"/>
-      <c r="O7" s="1" t="n"/>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
       <c r="Y7" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -766,11 +863,23 @@
       <c r="L8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="n"/>
-      <c r="N8" s="1" t="n"/>
-      <c r="O8" s="1" t="n"/>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
       <c r="Y8" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -812,11 +921,23 @@
       <c r="L9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n"/>
-      <c r="O9" s="1" t="n"/>
+      <c r="M9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
       <c r="Y9" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -858,11 +979,23 @@
       <c r="L10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n"/>
-      <c r="O10" s="1" t="n"/>
+      <c r="M10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
       <c r="Y10" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -904,11 +1037,23 @@
       <c r="L11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n"/>
-      <c r="O11" s="1" t="n"/>
+      <c r="M11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -950,11 +1095,23 @@
       <c r="L12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n"/>
-      <c r="O12" s="1" t="n"/>
+      <c r="M12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
       <c r="Y12" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -996,11 +1153,23 @@
       <c r="L13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
-      <c r="O13" s="1" t="n"/>
+      <c r="M13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
       <c r="Y13" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1042,11 +1211,23 @@
       <c r="L14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M14" s="1" t="n"/>
-      <c r="N14" s="1" t="n"/>
-      <c r="O14" s="1" t="n"/>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1088,11 +1269,23 @@
       <c r="L15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n"/>
-      <c r="O15" s="1" t="n"/>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -1134,11 +1327,23 @@
       <c r="L16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
-      <c r="O16" s="1" t="n"/>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
       <c r="Y16" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1180,11 +1385,23 @@
       <c r="L17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
       <c r="Y17" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1226,11 +1443,23 @@
       <c r="L18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n"/>
-      <c r="O18" s="1" t="n"/>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
       <c r="Y18" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1272,11 +1501,23 @@
       <c r="L19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n"/>
-      <c r="O19" s="1" t="n"/>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
       <c r="Y19" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1318,11 +1559,23 @@
       <c r="L20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="n"/>
-      <c r="N20" s="1" t="n"/>
-      <c r="O20" s="1" t="n"/>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
       <c r="Y20" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1364,11 +1617,23 @@
       <c r="L21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n"/>
-      <c r="O21" s="1" t="n"/>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
       <c r="Y21" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1410,11 +1675,23 @@
       <c r="L22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n"/>
-      <c r="O22" s="1" t="n"/>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
       <c r="Y22" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1456,11 +1733,23 @@
       <c r="L23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n"/>
-      <c r="O23" s="1" t="n"/>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
       <c r="Y23" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1502,11 +1791,23 @@
       <c r="L24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n"/>
-      <c r="O24" s="1" t="n"/>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
       <c r="Y24" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1548,11 +1849,23 @@
       <c r="L25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n"/>
-      <c r="O25" s="1" t="n"/>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
       <c r="Y25" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1594,11 +1907,23 @@
       <c r="L26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="1" t="n"/>
-      <c r="N26" s="1" t="n"/>
-      <c r="O26" s="1" t="n"/>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
       <c r="Y26" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1640,11 +1965,23 @@
       <c r="L27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="1" t="n"/>
-      <c r="O27" s="1" t="n"/>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1686,11 +2023,23 @@
       <c r="L28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M28" s="1" t="n"/>
-      <c r="N28" s="1" t="n"/>
-      <c r="O28" s="1" t="n"/>
+      <c r="M28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1732,11 +2081,23 @@
       <c r="L29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n"/>
-      <c r="O29" s="1" t="n"/>
+      <c r="M29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
       <c r="Y29" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1778,11 +2139,23 @@
       <c r="L30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n"/>
-      <c r="O30" s="1" t="n"/>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1824,11 +2197,23 @@
       <c r="L31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M31" s="1" t="n"/>
-      <c r="N31" s="1" t="n"/>
-      <c r="O31" s="1" t="n"/>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1870,11 +2255,23 @@
       <c r="L32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M32" s="1" t="n"/>
-      <c r="N32" s="1" t="n"/>
-      <c r="O32" s="1" t="n"/>
+      <c r="M32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1916,11 +2313,23 @@
       <c r="L33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M33" s="1" t="n"/>
-      <c r="N33" s="1" t="n"/>
-      <c r="O33" s="1" t="n"/>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1962,11 +2371,23 @@
       <c r="L34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n"/>
-      <c r="O34" s="1" t="n"/>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -2008,11 +2429,23 @@
       <c r="L35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M35" s="1" t="n"/>
-      <c r="N35" s="1" t="n"/>
-      <c r="O35" s="1" t="n"/>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2054,11 +2487,23 @@
       <c r="L36" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n"/>
-      <c r="O36" s="1" t="n"/>
+      <c r="M36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2100,11 +2545,23 @@
       <c r="L37" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M37" s="1" t="n"/>
-      <c r="N37" s="1" t="n"/>
-      <c r="O37" s="1" t="n"/>
+      <c r="M37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -2146,11 +2603,23 @@
       <c r="L38" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M38" s="1" t="n"/>
-      <c r="N38" s="1" t="n"/>
-      <c r="O38" s="1" t="n"/>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -2192,11 +2661,23 @@
       <c r="L39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M39" s="1" t="n"/>
-      <c r="N39" s="1" t="n"/>
-      <c r="O39" s="1" t="n"/>
+      <c r="M39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2238,11 +2719,23 @@
       <c r="L40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M40" s="1" t="n"/>
-      <c r="N40" s="1" t="n"/>
-      <c r="O40" s="1" t="n"/>
+      <c r="M40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -2284,11 +2777,23 @@
       <c r="L41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M41" s="1" t="n"/>
-      <c r="N41" s="1" t="n"/>
-      <c r="O41" s="1" t="n"/>
+      <c r="M41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2330,11 +2835,23 @@
       <c r="L42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n"/>
-      <c r="O42" s="1" t="n"/>
+      <c r="M42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2376,11 +2893,23 @@
       <c r="L43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M43" s="1" t="n"/>
-      <c r="N43" s="1" t="n"/>
-      <c r="O43" s="1" t="n"/>
+      <c r="M43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2422,11 +2951,23 @@
       <c r="L44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M44" s="1" t="n"/>
-      <c r="N44" s="1" t="n"/>
-      <c r="O44" s="1" t="n"/>
+      <c r="M44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -2468,11 +3009,23 @@
       <c r="L45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M45" s="1" t="n"/>
-      <c r="N45" s="1" t="n"/>
-      <c r="O45" s="1" t="n"/>
+      <c r="M45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -2514,11 +3067,23 @@
       <c r="L46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M46" s="1" t="n"/>
-      <c r="N46" s="1" t="n"/>
-      <c r="O46" s="1" t="n"/>
+      <c r="M46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2560,11 +3125,23 @@
       <c r="L47" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M47" s="1" t="n"/>
-      <c r="N47" s="1" t="n"/>
-      <c r="O47" s="1" t="n"/>
+      <c r="M47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2606,11 +3183,23 @@
       <c r="L48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M48" s="1" t="n"/>
-      <c r="N48" s="1" t="n"/>
-      <c r="O48" s="1" t="n"/>
+      <c r="M48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2652,11 +3241,23 @@
       <c r="L49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M49" s="1" t="n"/>
-      <c r="N49" s="1" t="n"/>
-      <c r="O49" s="1" t="n"/>
+      <c r="M49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -2698,11 +3299,23 @@
       <c r="L50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M50" s="1" t="n"/>
-      <c r="N50" s="1" t="n"/>
-      <c r="O50" s="1" t="n"/>
+      <c r="M50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2744,11 +3357,23 @@
       <c r="L51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M51" s="1" t="n"/>
-      <c r="N51" s="1" t="n"/>
-      <c r="O51" s="1" t="n"/>
+      <c r="M51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -2790,11 +3415,23 @@
       <c r="L52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M52" s="1" t="n"/>
-      <c r="N52" s="1" t="n"/>
-      <c r="O52" s="1" t="n"/>
+      <c r="M52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2836,11 +3473,23 @@
       <c r="L53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M53" s="1" t="n"/>
-      <c r="N53" s="1" t="n"/>
-      <c r="O53" s="1" t="n"/>
+      <c r="M53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2882,11 +3531,23 @@
       <c r="L54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M54" s="1" t="n"/>
-      <c r="N54" s="1" t="n"/>
-      <c r="O54" s="1" t="n"/>
+      <c r="M54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -2928,11 +3589,23 @@
       <c r="L55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M55" s="1" t="n"/>
-      <c r="N55" s="1" t="n"/>
-      <c r="O55" s="1" t="n"/>
+      <c r="M55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2974,11 +3647,23 @@
       <c r="L56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M56" s="1" t="n"/>
-      <c r="N56" s="1" t="n"/>
-      <c r="O56" s="1" t="n"/>
+      <c r="M56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
       <c r="Y56" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -3020,11 +3705,23 @@
       <c r="L57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M57" s="1" t="n"/>
-      <c r="N57" s="1" t="n"/>
-      <c r="O57" s="1" t="n"/>
+      <c r="M57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
       <c r="Y57" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -3066,11 +3763,23 @@
       <c r="L58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M58" s="1" t="n"/>
-      <c r="N58" s="1" t="n"/>
-      <c r="O58" s="1" t="n"/>
+      <c r="M58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
       <c r="Y58" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -3112,11 +3821,23 @@
       <c r="L59" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M59" s="1" t="n"/>
-      <c r="N59" s="1" t="n"/>
-      <c r="O59" s="1" t="n"/>
+      <c r="M59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
       <c r="Y59" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3158,11 +3879,23 @@
       <c r="L60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M60" s="1" t="n"/>
-      <c r="N60" s="1" t="n"/>
-      <c r="O60" s="1" t="n"/>
+      <c r="M60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
       <c r="Y60" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -3204,11 +3937,23 @@
       <c r="L61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M61" s="1" t="n"/>
-      <c r="N61" s="1" t="n"/>
-      <c r="O61" s="1" t="n"/>
+      <c r="M61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
       <c r="Y61" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -3250,11 +3995,23 @@
       <c r="L62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M62" s="1" t="n"/>
-      <c r="N62" s="1" t="n"/>
-      <c r="O62" s="1" t="n"/>
+      <c r="M62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
       <c r="Y62" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3296,11 +4053,23 @@
       <c r="L63" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M63" s="1" t="n"/>
-      <c r="N63" s="1" t="n"/>
-      <c r="O63" s="1" t="n"/>
+      <c r="M63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
       <c r="Y63" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -3342,11 +4111,23 @@
       <c r="L64" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M64" s="1" t="n"/>
-      <c r="N64" s="1" t="n"/>
-      <c r="O64" s="1" t="n"/>
+      <c r="M64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
       <c r="Y64" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -3388,11 +4169,23 @@
       <c r="L65" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M65" s="1" t="n"/>
-      <c r="N65" s="1" t="n"/>
-      <c r="O65" s="1" t="n"/>
+      <c r="M65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
       <c r="Y65" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -3434,11 +4227,23 @@
       <c r="L66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M66" s="1" t="n"/>
-      <c r="N66" s="1" t="n"/>
-      <c r="O66" s="1" t="n"/>
+      <c r="M66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
       <c r="Y66" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -3480,11 +4285,23 @@
       <c r="L67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M67" s="1" t="n"/>
-      <c r="N67" s="1" t="n"/>
-      <c r="O67" s="1" t="n"/>
+      <c r="M67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
+      </c>
       <c r="Y67" s="6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3526,9 +4343,21 @@
       <c r="L68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M68" s="1" t="n"/>
-      <c r="N68" s="1" t="n"/>
-      <c r="O68" s="1" t="n"/>
+      <c r="M68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>1</v>
+      </c>
       <c r="Y68" s="6" t="n">
         <v>0</v>
       </c>
@@ -3572,11 +4401,23 @@
       <c r="L69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M69" s="1" t="n"/>
-      <c r="N69" s="1" t="n"/>
-      <c r="O69" s="1" t="n"/>
+      <c r="M69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
       <c r="Y69" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -3618,11 +4459,23 @@
       <c r="L70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M70" s="1" t="n"/>
-      <c r="N70" s="1" t="n"/>
-      <c r="O70" s="1" t="n"/>
+      <c r="M70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
       <c r="Y70" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -3664,11 +4517,23 @@
       <c r="L71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M71" s="1" t="n"/>
-      <c r="N71" s="1" t="n"/>
-      <c r="O71" s="1" t="n"/>
+      <c r="M71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
       <c r="Y71" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -3710,11 +4575,23 @@
       <c r="L72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M72" s="1" t="n"/>
-      <c r="N72" s="1" t="n"/>
-      <c r="O72" s="1" t="n"/>
+      <c r="M72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
       <c r="Y72" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
@@ -3756,11 +4633,23 @@
       <c r="L73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M73" s="1" t="n"/>
-      <c r="N73" s="1" t="n"/>
-      <c r="O73" s="1" t="n"/>
+      <c r="M73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
       <c r="Y73" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -3802,11 +4691,23 @@
       <c r="L74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M74" s="1" t="n"/>
-      <c r="N74" s="1" t="n"/>
-      <c r="O74" s="1" t="n"/>
+      <c r="M74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
       <c r="Y74" s="6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -3829,8 +4730,23 @@
       <c r="L75" t="b">
         <v>0</v>
       </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3853,8 +4769,23 @@
       <c r="L76" t="b">
         <v>0</v>
       </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -3877,8 +4808,23 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -3901,8 +4847,23 @@
       <c r="L78" t="b">
         <v>0</v>
       </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">

--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -458,6 +458,11 @@
           <t>Attendance Session 12 - 29-September-2023</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Attendance Session 13 - 29-September-2023</t>
+        </is>
+      </c>
       <c r="X1" t="inlineStr">
         <is>
           <t>Da gui Email</t>
@@ -527,11 +532,14 @@
       <c r="Q2" t="b">
         <v>1</v>
       </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
       <c r="X2" t="b">
         <v>1</v>
       </c>
       <c r="Y2" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -588,8 +596,11 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -646,8 +657,11 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y4" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -704,8 +718,11 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
       <c r="Y5" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -762,8 +779,11 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
       <c r="Y6" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -820,8 +840,11 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
       <c r="Y7" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -878,8 +901,11 @@
       <c r="Q8" t="b">
         <v>0</v>
       </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
       <c r="Y8" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -936,8 +962,11 @@
       <c r="Q9" t="b">
         <v>0</v>
       </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
       <c r="Y9" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -994,8 +1023,11 @@
       <c r="Q10" t="b">
         <v>0</v>
       </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
       <c r="Y10" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1052,8 +1084,11 @@
       <c r="Q11" t="b">
         <v>0</v>
       </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
       <c r="Y11" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1110,8 +1145,11 @@
       <c r="Q12" t="b">
         <v>0</v>
       </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
       <c r="Y12" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1168,8 +1206,11 @@
       <c r="Q13" t="b">
         <v>0</v>
       </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
       <c r="Y13" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1226,8 +1267,11 @@
       <c r="Q14" t="b">
         <v>0</v>
       </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
       <c r="Y14" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1284,8 +1328,11 @@
       <c r="Q15" t="b">
         <v>0</v>
       </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
       <c r="Y15" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1342,8 +1389,11 @@
       <c r="Q16" t="b">
         <v>0</v>
       </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
       <c r="Y16" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1400,8 +1450,11 @@
       <c r="Q17" t="b">
         <v>0</v>
       </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
       <c r="Y17" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1458,8 +1511,11 @@
       <c r="Q18" t="b">
         <v>0</v>
       </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
       <c r="Y18" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1516,8 +1572,11 @@
       <c r="Q19" t="b">
         <v>0</v>
       </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
       <c r="Y19" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1574,8 +1633,11 @@
       <c r="Q20" t="b">
         <v>0</v>
       </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
       <c r="Y20" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1632,8 +1694,11 @@
       <c r="Q21" t="b">
         <v>0</v>
       </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
       <c r="Y21" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1690,8 +1755,11 @@
       <c r="Q22" t="b">
         <v>0</v>
       </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
       <c r="Y22" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1748,8 +1816,11 @@
       <c r="Q23" t="b">
         <v>0</v>
       </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
       <c r="Y23" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1806,8 +1877,11 @@
       <c r="Q24" t="b">
         <v>0</v>
       </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
       <c r="Y24" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1864,8 +1938,11 @@
       <c r="Q25" t="b">
         <v>0</v>
       </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
       <c r="Y25" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1922,8 +1999,11 @@
       <c r="Q26" t="b">
         <v>0</v>
       </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
       <c r="Y26" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1980,8 +2060,11 @@
       <c r="Q27" t="b">
         <v>0</v>
       </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
       <c r="Y27" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2038,8 +2121,11 @@
       <c r="Q28" t="b">
         <v>0</v>
       </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
       <c r="Y28" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2096,8 +2182,11 @@
       <c r="Q29" t="b">
         <v>0</v>
       </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
       <c r="Y29" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -2154,8 +2243,11 @@
       <c r="Q30" t="b">
         <v>0</v>
       </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
       <c r="Y30" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2212,8 +2304,11 @@
       <c r="Q31" t="b">
         <v>0</v>
       </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
       <c r="Y31" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -2270,8 +2365,11 @@
       <c r="Q32" t="b">
         <v>0</v>
       </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2328,8 +2426,11 @@
       <c r="Q33" t="b">
         <v>0</v>
       </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
       <c r="Y33" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -2386,8 +2487,11 @@
       <c r="Q34" t="b">
         <v>0</v>
       </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
       <c r="Y34" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2444,8 +2548,11 @@
       <c r="Q35" t="b">
         <v>0</v>
       </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
       <c r="Y35" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2502,8 +2609,11 @@
       <c r="Q36" t="b">
         <v>0</v>
       </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
       <c r="Y36" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2560,8 +2670,11 @@
       <c r="Q37" t="b">
         <v>0</v>
       </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
       <c r="Y37" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2618,8 +2731,11 @@
       <c r="Q38" t="b">
         <v>0</v>
       </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
       <c r="Y38" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -2676,8 +2792,11 @@
       <c r="Q39" t="b">
         <v>0</v>
       </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
       <c r="Y39" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2734,8 +2853,11 @@
       <c r="Q40" t="b">
         <v>0</v>
       </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
       <c r="Y40" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -2792,8 +2914,11 @@
       <c r="Q41" t="b">
         <v>0</v>
       </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
       <c r="Y41" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2850,8 +2975,11 @@
       <c r="Q42" t="b">
         <v>0</v>
       </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2908,8 +3036,11 @@
       <c r="Q43" t="b">
         <v>0</v>
       </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
       <c r="Y43" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2966,8 +3097,11 @@
       <c r="Q44" t="b">
         <v>0</v>
       </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
       <c r="Y44" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -3024,8 +3158,11 @@
       <c r="Q45" t="b">
         <v>0</v>
       </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
       <c r="Y45" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -3082,8 +3219,11 @@
       <c r="Q46" t="b">
         <v>0</v>
       </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
       <c r="Y46" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -3140,8 +3280,11 @@
       <c r="Q47" t="b">
         <v>0</v>
       </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
       <c r="Y47" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -3198,8 +3341,11 @@
       <c r="Q48" t="b">
         <v>0</v>
       </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
       <c r="Y48" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -3256,8 +3402,11 @@
       <c r="Q49" t="b">
         <v>0</v>
       </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
       <c r="Y49" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3314,8 +3463,11 @@
       <c r="Q50" t="b">
         <v>0</v>
       </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
       <c r="Y50" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -3372,8 +3524,11 @@
       <c r="Q51" t="b">
         <v>0</v>
       </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
       <c r="Y51" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -3430,8 +3585,11 @@
       <c r="Q52" t="b">
         <v>0</v>
       </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
       <c r="Y52" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -3488,8 +3646,11 @@
       <c r="Q53" t="b">
         <v>0</v>
       </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
       <c r="Y53" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -3546,8 +3707,11 @@
       <c r="Q54" t="b">
         <v>0</v>
       </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
       <c r="Y54" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -3604,8 +3768,11 @@
       <c r="Q55" t="b">
         <v>0</v>
       </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
       <c r="Y55" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -3662,8 +3829,11 @@
       <c r="Q56" t="b">
         <v>0</v>
       </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
       <c r="Y56" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3720,8 +3890,11 @@
       <c r="Q57" t="b">
         <v>0</v>
       </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
       <c r="Y57" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3778,8 +3951,11 @@
       <c r="Q58" t="b">
         <v>0</v>
       </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
       <c r="Y58" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3836,8 +4012,11 @@
       <c r="Q59" t="b">
         <v>0</v>
       </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
       <c r="Y59" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -3894,8 +4073,11 @@
       <c r="Q60" t="b">
         <v>0</v>
       </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
       <c r="Y60" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -3952,8 +4134,11 @@
       <c r="Q61" t="b">
         <v>0</v>
       </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
       <c r="Y61" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -4010,8 +4195,11 @@
       <c r="Q62" t="b">
         <v>0</v>
       </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
       <c r="Y62" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -4068,8 +4256,11 @@
       <c r="Q63" t="b">
         <v>0</v>
       </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
       <c r="Y63" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -4126,8 +4317,11 @@
       <c r="Q64" t="b">
         <v>0</v>
       </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
       <c r="Y64" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -4184,8 +4378,11 @@
       <c r="Q65" t="b">
         <v>0</v>
       </c>
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
       <c r="Y65" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -4242,8 +4439,11 @@
       <c r="Q66" t="b">
         <v>0</v>
       </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
       <c r="Y66" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -4300,6 +4500,9 @@
       <c r="Q67" t="b">
         <v>1</v>
       </c>
+      <c r="R67" t="b">
+        <v>1</v>
+      </c>
       <c r="Y67" s="6" t="n">
         <v>9</v>
       </c>
@@ -4358,8 +4561,11 @@
       <c r="Q68" t="b">
         <v>1</v>
       </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
       <c r="Y68" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4416,8 +4622,11 @@
       <c r="Q69" t="b">
         <v>0</v>
       </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
       <c r="Y69" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -4474,8 +4683,11 @@
       <c r="Q70" t="b">
         <v>0</v>
       </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
       <c r="Y70" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -4532,8 +4744,11 @@
       <c r="Q71" t="b">
         <v>0</v>
       </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
       <c r="Y71" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -4590,8 +4805,11 @@
       <c r="Q72" t="b">
         <v>0</v>
       </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
       <c r="Y72" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -4648,8 +4866,11 @@
       <c r="Q73" t="b">
         <v>0</v>
       </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
       <c r="Y73" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -4706,8 +4927,11 @@
       <c r="Q74" t="b">
         <v>0</v>
       </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
       <c r="Y74" s="6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
@@ -4745,8 +4969,11 @@
       <c r="Q75" t="b">
         <v>0</v>
       </c>
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
       <c r="Y75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -4784,8 +5011,11 @@
       <c r="Q76" t="b">
         <v>0</v>
       </c>
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
       <c r="Y76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -4823,8 +5053,11 @@
       <c r="Q77" t="b">
         <v>0</v>
       </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
       <c r="Y77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -4862,8 +5095,11 @@
       <c r="Q78" t="b">
         <v>0</v>
       </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
       <c r="Y78" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
